--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="151">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -496,6 +496,9 @@
   <si>
     <t>Полная высота 45,4 мм</t>
   </si>
+  <si>
+    <t>Вес, гр. (ном. 305 гр.)</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +511,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2186,7 +2189,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="648">
+  <cellXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3600,12 +3603,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3650,26 +3647,53 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3678,6 +3702,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3687,80 +3759,41 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3861,40 +3894,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3914,84 +3995,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4022,35 +4025,50 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6426,7 +6444,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -6434,75 +6452,75 @@
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="497" t="s">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="495" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="498" t="s">
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="496" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="500"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="498"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G3" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="502" t="s">
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="500" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="503"/>
-      <c r="C4" s="503"/>
-      <c r="D4" s="503"/>
-      <c r="E4" s="503"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="504" t="s">
+      <c r="B4" s="501"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="502" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="505"/>
-      <c r="C5" s="505"/>
-      <c r="D5" s="505"/>
-      <c r="E5" s="506"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="497" t="s">
+      <c r="B5" s="503"/>
+      <c r="C5" s="503"/>
+      <c r="D5" s="503"/>
+      <c r="E5" s="504"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="495" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="501"/>
-      <c r="C7" s="501"/>
-      <c r="D7" s="501"/>
-      <c r="E7" s="501"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="507"/>
-      <c r="B8" s="508"/>
-      <c r="C8" s="508"/>
-      <c r="D8" s="508"/>
-      <c r="E8" s="509"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="497" t="s">
+      <c r="B7" s="499"/>
+      <c r="C7" s="499"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="499"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="505"/>
+      <c r="B8" s="506"/>
+      <c r="C8" s="506"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="507"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="495" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="497"/>
+      <c r="B10" s="495"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>94</v>
@@ -6512,36 +6530,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="495"/>
-      <c r="B11" s="496"/>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="493"/>
+      <c r="B11" s="494"/>
       <c r="D11" s="369">
         <v>43839</v>
       </c>
-      <c r="F11" s="492" t="s">
+      <c r="F11" s="508" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="492"/>
-      <c r="H11" s="492"/>
-      <c r="I11" s="492"/>
-      <c r="J11" s="493" t="s">
+      <c r="G11" s="508"/>
+      <c r="H11" s="508"/>
+      <c r="I11" s="508"/>
+      <c r="J11" s="509" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="493"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="492" t="s">
+      <c r="K11" s="509"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="508" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="492"/>
-      <c r="H12" s="492"/>
-      <c r="I12" s="492"/>
-      <c r="J12" s="493" t="s">
+      <c r="G12" s="508"/>
+      <c r="H12" s="508"/>
+      <c r="I12" s="508"/>
+      <c r="J12" s="509" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="493"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6">
+      <c r="K12" s="509"/>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="374" t="s">
         <v>88</v>
       </c>
@@ -6557,18 +6575,18 @@
       <c r="E13" s="474" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="492" t="s">
+      <c r="F13" s="508" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="492"/>
-      <c r="H13" s="492"/>
-      <c r="I13" s="492"/>
-      <c r="J13" s="493" t="s">
+      <c r="G13" s="508"/>
+      <c r="H13" s="508"/>
+      <c r="I13" s="508"/>
+      <c r="J13" s="509" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="493"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="509"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
@@ -6586,7 +6604,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
@@ -6604,7 +6622,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
@@ -6622,7 +6640,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
@@ -6640,7 +6658,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
@@ -6676,7 +6694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
@@ -6690,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
@@ -6704,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
@@ -6716,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
@@ -6734,7 +6752,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
@@ -6748,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="365" t="s">
         <v>92</v>
       </c>
@@ -6760,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
@@ -6774,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="367" t="s">
         <v>106</v>
       </c>
@@ -6783,7 +6801,7 @@
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="371"/>
       <c r="D28" s="370"/>
       <c r="E28" s="370">
@@ -6798,20 +6816,26 @@
         <v>273.19999999999982</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="494" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="492" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="494"/>
-      <c r="C29" s="494"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="B29" s="492"/>
+      <c r="C29" s="492"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6821,12 +6845,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6844,7 +6862,7 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
@@ -6857,7 +6875,7 @@
     <col min="20" max="16384" width="9.109375" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6878,26 +6896,26 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -6906,21 +6924,21 @@
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6929,11 +6947,11 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -6950,24 +6968,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -6976,24 +6994,24 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7002,29 +7020,29 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7033,7 +7051,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7054,7 +7072,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7087,7 +7105,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -7120,7 +7138,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -7151,7 +7169,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7184,7 +7202,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7217,7 +7235,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7250,7 +7268,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7283,7 +7301,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7316,7 +7334,7 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -7347,7 +7365,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7380,7 +7398,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7401,8 +7419,8 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
-    <row r="21" spans="1:19">
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L21" s="628" t="s">
         <v>139</v>
       </c>
@@ -7413,23 +7431,18 @@
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19">
-      <c r="O22" s="550" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O22" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="550"/>
-      <c r="Q22" s="551" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="552"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7446,6 +7459,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7475,7 +7493,7 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
@@ -7488,7 +7506,7 @@
     <col min="20" max="16384" width="9.109375" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7509,49 +7527,49 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7560,11 +7578,11 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7581,24 +7599,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7607,24 +7625,24 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7633,29 +7651,29 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7664,7 +7682,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7685,7 +7703,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7718,7 +7736,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7751,7 +7769,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7784,7 +7802,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7817,7 +7835,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7850,7 +7868,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7883,7 +7901,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -7916,7 +7934,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -7949,7 +7967,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -7982,14 +8000,14 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="639" t="s">
+      <c r="B18" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="640"/>
-      <c r="D18" s="640"/>
-      <c r="E18" s="641"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8009,7 +8027,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8030,8 +8048,8 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
-    <row r="21" spans="1:19">
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L21" s="628" t="s">
         <v>139</v>
       </c>
@@ -8042,27 +8060,18 @@
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19">
-      <c r="O22" s="550" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O22" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="550"/>
-      <c r="Q22" s="551" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="552"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8076,6 +8085,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8114,7 +8132,7 @@
       <selection pane="bottomRight" activeCell="O19" sqref="O19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -8127,7 +8145,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8148,26 +8166,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8176,21 +8194,21 @@
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8199,11 +8217,11 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8220,24 +8238,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8246,24 +8264,24 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8272,29 +8290,29 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8303,7 +8321,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8324,7 +8342,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8357,7 +8375,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8388,7 +8406,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8419,7 +8437,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8452,7 +8470,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8483,7 +8501,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8516,7 +8534,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8549,7 +8567,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8582,7 +8600,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8603,8 +8621,8 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1"/>
-    <row r="19" spans="1:19">
+    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L19" s="628" t="s">
         <v>139</v>
       </c>
@@ -8615,23 +8633,18 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="O20" s="550" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O20" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="550"/>
-      <c r="Q20" s="551" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="552"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8648,6 +8661,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8668,7 +8686,7 @@
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
@@ -8681,7 +8699,7 @@
     <col min="20" max="16384" width="9.109375" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8702,49 +8720,49 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="644">
+      <c r="J2" s="615"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="L2" s="645"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="646"/>
-      <c r="L3" s="647"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8753,11 +8771,11 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8774,24 +8792,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8800,24 +8818,24 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8826,29 +8844,29 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8857,7 +8875,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8878,7 +8896,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8911,7 +8929,7 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
@@ -8944,7 +8962,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -8977,7 +8995,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -9010,7 +9028,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9043,7 +9061,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -9076,7 +9094,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -9097,7 +9115,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -9118,8 +9136,8 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.8" thickTop="1"/>
-    <row r="18" spans="12:18">
+    <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L18" s="628" t="s">
         <v>139</v>
       </c>
@@ -9130,23 +9148,18 @@
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18">
-      <c r="O19" s="550" t="s">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="550"/>
-      <c r="Q19" s="551" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="552"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9163,6 +9176,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9191,11 +9209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -9211,7 +9229,7 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>110</v>
@@ -9230,7 +9248,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>111</v>
@@ -9246,23 +9264,23 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="515" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="512" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="515"/>
-      <c r="C3" s="515"/>
-      <c r="D3" s="515"/>
-      <c r="E3" s="515"/>
-      <c r="F3" s="515"/>
-      <c r="G3" s="515"/>
-      <c r="H3" s="515"/>
-      <c r="I3" s="515"/>
+      <c r="B3" s="512"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="512"/>
+      <c r="G3" s="512"/>
+      <c r="H3" s="512"/>
+      <c r="I3" s="512"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -9274,7 +9292,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="387" t="s">
         <v>113</v>
       </c>
@@ -9304,7 +9322,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -9334,7 +9352,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="398">
         <f>A6+1</f>
         <v>2</v>
@@ -9365,7 +9383,7 @@
       <c r="K7" s="383"/>
       <c r="L7" s="397"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="398">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9396,7 +9414,7 @@
       <c r="K8" s="383"/>
       <c r="L8" s="397"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="398">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9427,7 +9445,7 @@
       <c r="K9" s="383"/>
       <c r="L9" s="397"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="398">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9458,7 +9476,7 @@
       <c r="K10" s="403"/>
       <c r="L10" s="397"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="398">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9489,7 +9507,7 @@
       <c r="K11" s="383"/>
       <c r="L11" s="397"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="398">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9519,7 +9537,7 @@
       <c r="L12" s="397"/>
       <c r="M12" s="405"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="398">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9549,7 +9567,7 @@
       <c r="L13" s="397"/>
       <c r="M13" s="405"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="398">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9582,7 +9600,7 @@
       <c r="K14" s="403"/>
       <c r="L14" s="397"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="398">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9613,7 +9631,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9642,7 +9660,7 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="407">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9671,7 +9689,7 @@
       <c r="K17" s="403"/>
       <c r="L17" s="397"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="414"/>
       <c r="B18" s="415"/>
       <c r="C18" s="383"/>
@@ -9683,7 +9701,7 @@
       <c r="I18" s="383"/>
       <c r="J18" s="383"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="383"/>
       <c r="B19" s="417" t="s">
         <v>120</v>
@@ -9699,7 +9717,7 @@
       <c r="K19" s="418"/>
       <c r="L19" s="418"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="387" t="s">
         <v>121</v>
       </c>
@@ -9727,47 +9745,51 @@
       <c r="I20" s="421" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="391"/>
+      <c r="J20" s="421" t="s">
+        <v>150</v>
+      </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="422">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
       <c r="B21" s="423">
-        <v>43759</v>
+        <v>43846</v>
       </c>
       <c r="C21" s="424">
-        <v>43765</v>
+        <v>43850</v>
       </c>
       <c r="D21" s="423">
-        <v>43769</v>
+        <v>43857</v>
       </c>
       <c r="E21" s="425">
-        <v>948096</v>
+        <v>895356</v>
       </c>
       <c r="F21" s="425">
-        <v>1031915</v>
+        <v>942062</v>
       </c>
       <c r="G21" s="426">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>5.6075119047619047E-2</v>
       </c>
       <c r="H21" s="427">
         <f>A21-F21</f>
-        <v>15768085</v>
+        <v>15857938</v>
       </c>
       <c r="I21" s="428">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="429"/>
+        <v>0.94392488095238092</v>
+      </c>
+      <c r="J21" s="648">
+        <v>305</v>
+      </c>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="430"/>
       <c r="B22" s="431"/>
       <c r="C22" s="431"/>
@@ -9780,17 +9802,17 @@
       </c>
       <c r="H22" s="433">
         <f>H21-F22</f>
-        <v>15768085</v>
+        <v>15857938</v>
       </c>
       <c r="I22" s="434">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="383"/>
+        <v>0.94392488095238092</v>
+      </c>
+      <c r="J22" s="649"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="435"/>
       <c r="B23" s="436"/>
       <c r="C23" s="436"/>
@@ -9800,11 +9822,11 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="429"/>
+      <c r="J23" s="650"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="435"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
@@ -9814,11 +9836,11 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="429"/>
+      <c r="J24" s="651"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="435"/>
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
@@ -9828,11 +9850,11 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="429"/>
+      <c r="J25" s="650"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="435"/>
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
@@ -9842,11 +9864,11 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="429"/>
+      <c r="J26" s="650"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="435"/>
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
@@ -9856,11 +9878,11 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="429"/>
+      <c r="J27" s="650"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="435"/>
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
@@ -9870,11 +9892,11 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="429"/>
+      <c r="J28" s="650"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
@@ -9884,11 +9906,11 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="429"/>
+      <c r="J29" s="652"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="435"/>
       <c r="B30" s="436"/>
       <c r="C30" s="436"/>
@@ -9898,11 +9920,11 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="429"/>
+      <c r="J30" s="652"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="446"/>
       <c r="B31" s="447"/>
       <c r="C31" s="447"/>
@@ -9912,11 +9934,11 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="383"/>
+      <c r="J31" s="653"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="453" t="s">
         <v>130</v>
       </c>
@@ -9925,29 +9947,29 @@
       <c r="D32" s="455"/>
       <c r="E32" s="456">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
+        <v>895356</v>
       </c>
       <c r="F32" s="457">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
+        <v>942062</v>
       </c>
       <c r="G32" s="458">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
+        <v>5.6075119047619047E-2</v>
       </c>
       <c r="H32" s="459">
         <f>A21-F32</f>
-        <v>15768085</v>
+        <v>15857938</v>
       </c>
       <c r="I32" s="460">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="461"/>
+        <v>0.94392488095238092</v>
+      </c>
+      <c r="J32" s="654"/>
       <c r="K32" s="461"/>
       <c r="L32" s="461"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
@@ -9959,13 +9981,13 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="516" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="513" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="516"/>
-      <c r="C36" s="516"/>
-      <c r="D36" s="516"/>
+      <c r="B36" s="513"/>
+      <c r="C36" s="513"/>
+      <c r="D36" s="513"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -9973,11 +9995,11 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="517" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="514" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="517"/>
+      <c r="B37" s="514"/>
       <c r="C37" s="462" t="s">
         <v>133</v>
       </c>
@@ -9991,19 +10013,19 @@
       <c r="I37" s="383"/>
       <c r="J37" s="383"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="518">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="515">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="519"/>
+        <v>15857938</v>
+      </c>
+      <c r="B38" s="516"/>
       <c r="C38" s="463">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
+        <v>0.94392488095238092</v>
       </c>
       <c r="D38" s="464">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
+        <v>117.99061011904762</v>
       </c>
       <c r="E38" s="465" t="s">
         <v>135</v>
@@ -10014,7 +10036,7 @@
       <c r="I38" s="465"/>
       <c r="J38" s="465"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -10022,7 +10044,7 @@
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="383"/>
       <c r="B40" s="383"/>
       <c r="C40" s="383"/>
@@ -10037,7 +10059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
       <c r="B41" s="466"/>
       <c r="C41" s="466"/>
@@ -10049,7 +10071,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="467"/>
       <c r="B42" s="467"/>
       <c r="C42" s="467"/>
@@ -10058,10 +10080,10 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="510"/>
-      <c r="J42" s="511"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
       <c r="B43" s="469"/>
       <c r="C43" s="469"/>
@@ -10071,7 +10093,7 @@
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
       <c r="B44" s="469"/>
       <c r="C44" s="469"/>
@@ -10081,7 +10103,7 @@
       <c r="G44" s="413"/>
       <c r="H44" s="469"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="468"/>
       <c r="B45" s="469"/>
       <c r="C45" s="469"/>
@@ -10091,7 +10113,7 @@
       <c r="G45" s="413"/>
       <c r="H45" s="469"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="468"/>
       <c r="B46" s="469"/>
       <c r="C46" s="469"/>
@@ -10101,7 +10123,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="469"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="468"/>
       <c r="B47" s="469"/>
       <c r="C47" s="469"/>
@@ -10111,7 +10133,7 @@
       <c r="G47" s="413"/>
       <c r="H47" s="469"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="468"/>
       <c r="B48" s="469"/>
       <c r="C48" s="403"/>
@@ -10121,7 +10143,7 @@
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="468"/>
       <c r="B49" s="469"/>
       <c r="C49" s="469"/>
@@ -10131,7 +10153,7 @@
       <c r="G49" s="413"/>
       <c r="H49" s="469"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="468"/>
       <c r="B50" s="469"/>
       <c r="C50" s="469"/>
@@ -10141,7 +10163,7 @@
       <c r="G50" s="413"/>
       <c r="H50" s="469"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="468"/>
       <c r="B51" s="469"/>
       <c r="C51" s="469"/>
@@ -10151,11 +10173,11 @@
       <c r="G51" s="413"/>
       <c r="H51" s="469"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="383"/>
-      <c r="B52" s="513"/>
-      <c r="C52" s="513"/>
-      <c r="D52" s="514"/>
+      <c r="B52" s="510"/>
+      <c r="C52" s="510"/>
+      <c r="D52" s="511"/>
       <c r="E52" s="465"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10163,7 +10185,7 @@
       <c r="I52" s="383"/>
       <c r="J52" s="383"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="467"/>
       <c r="B53" s="467"/>
       <c r="C53" s="467"/>
@@ -10172,10 +10194,10 @@
       <c r="F53" s="467"/>
       <c r="G53" s="467"/>
       <c r="H53" s="467"/>
-      <c r="I53" s="510"/>
-      <c r="J53" s="511"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="517"/>
+      <c r="J53" s="518"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="468"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
@@ -10184,10 +10206,10 @@
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
       <c r="H54" s="469"/>
-      <c r="I54" s="512"/>
-      <c r="J54" s="512"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="519"/>
+      <c r="J54" s="519"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="468"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
@@ -10196,10 +10218,10 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="512"/>
-      <c r="J55" s="512"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="519"/>
+      <c r="J55" s="519"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="383"/>
       <c r="B56" s="383"/>
       <c r="C56" s="383"/>
@@ -10209,27 +10231,27 @@
       <c r="G56" s="383"/>
       <c r="H56" s="383"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="510"/>
-      <c r="C61" s="511"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="510"/>
-      <c r="C68" s="511"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="517"/>
+      <c r="C61" s="518"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="517"/>
+      <c r="C68" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10248,7 +10270,7 @@
       <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="300"/>
     <col min="4" max="4" width="8" style="300" customWidth="1"/>
@@ -10260,7 +10282,7 @@
     <col min="10" max="16384" width="9.109375" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10269,7 +10291,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G3" s="309" t="s">
         <v>102</v>
       </c>
@@ -10278,7 +10300,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G4" s="309" t="s">
         <v>105</v>
       </c>
@@ -10287,8 +10309,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>103</v>
@@ -10296,12 +10318,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -10311,50 +10333,50 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="545" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="521" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="545"/>
-      <c r="C11" s="545"/>
-      <c r="D11" s="545"/>
-      <c r="E11" s="545"/>
-      <c r="F11" s="545"/>
-      <c r="G11" s="545"/>
-      <c r="H11" s="545"/>
-      <c r="I11" s="545"/>
-      <c r="J11" s="545"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="544" t="s">
+      <c r="B11" s="521"/>
+      <c r="C11" s="521"/>
+      <c r="D11" s="521"/>
+      <c r="E11" s="521"/>
+      <c r="F11" s="521"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="521"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="520" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="544"/>
-      <c r="C12" s="544"/>
-      <c r="D12" s="544"/>
-      <c r="E12" s="544"/>
-      <c r="F12" s="544"/>
-      <c r="G12" s="544"/>
-      <c r="H12" s="544"/>
-      <c r="I12" s="544"/>
-      <c r="J12" s="544"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="546" t="str">
+      <c r="B12" s="520"/>
+      <c r="C12" s="520"/>
+      <c r="D12" s="520"/>
+      <c r="E12" s="520"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="520"/>
+      <c r="H12" s="520"/>
+      <c r="I12" s="520"/>
+      <c r="J12" s="520"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="522" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="B13" s="545"/>
-      <c r="C13" s="545"/>
-      <c r="D13" s="545"/>
-      <c r="E13" s="545"/>
-      <c r="F13" s="545"/>
-      <c r="G13" s="545"/>
-      <c r="H13" s="545"/>
-      <c r="I13" s="545"/>
-      <c r="J13" s="545"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
+      <c r="B13" s="521"/>
+      <c r="C13" s="521"/>
+      <c r="D13" s="521"/>
+      <c r="E13" s="521"/>
+      <c r="F13" s="521"/>
+      <c r="G13" s="521"/>
+      <c r="H13" s="521"/>
+      <c r="I13" s="521"/>
+      <c r="J13" s="521"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -10371,7 +10393,7 @@
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="304" t="s">
         <v>96</v>
       </c>
@@ -10385,7 +10407,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10406,7 +10428,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10427,7 +10449,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10445,7 +10467,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -10462,7 +10484,7 @@
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -10476,496 +10498,496 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="542" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="542" t="s">
+      <c r="B22" s="526" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="542"/>
-      <c r="D22" s="542"/>
-      <c r="E22" s="542" t="s">
+      <c r="C22" s="526"/>
+      <c r="D22" s="526"/>
+      <c r="E22" s="526" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="542"/>
-      <c r="G22" s="543" t="s">
+      <c r="F22" s="526"/>
+      <c r="G22" s="544" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="542" t="s">
+      <c r="H22" s="526" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="542"/>
-      <c r="J22" s="542"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="542"/>
-      <c r="B23" s="542"/>
-      <c r="C23" s="542"/>
-      <c r="D23" s="542"/>
-      <c r="E23" s="542"/>
-      <c r="F23" s="542"/>
-      <c r="G23" s="543"/>
-      <c r="H23" s="542"/>
-      <c r="I23" s="542"/>
-      <c r="J23" s="542"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="520">
+      <c r="I22" s="526"/>
+      <c r="J22" s="526"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="526"/>
+      <c r="B23" s="526"/>
+      <c r="C23" s="526"/>
+      <c r="D23" s="526"/>
+      <c r="E23" s="526"/>
+      <c r="F23" s="526"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="526"/>
+      <c r="I23" s="526"/>
+      <c r="J23" s="526"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="547" t="s">
+      <c r="B24" s="541" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="548"/>
-      <c r="D24" s="549"/>
-      <c r="E24" s="525" t="str">
+      <c r="C24" s="542"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="529" t="str">
         <f>Данные!C14</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F24" s="526"/>
-      <c r="G24" s="529">
+      <c r="F24" s="530"/>
+      <c r="G24" s="533">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="531"/>
-      <c r="I24" s="532"/>
-      <c r="J24" s="533"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="521"/>
-      <c r="B25" s="537" t="str">
+      <c r="H24" s="535"/>
+      <c r="I24" s="536"/>
+      <c r="J24" s="537"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="528"/>
+      <c r="B25" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C25" s="538"/>
-      <c r="D25" s="539"/>
-      <c r="E25" s="541"/>
-      <c r="F25" s="528"/>
-      <c r="G25" s="530"/>
-      <c r="H25" s="534"/>
-      <c r="I25" s="535"/>
-      <c r="J25" s="536"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="520">
+      <c r="C25" s="524"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="532"/>
+      <c r="G25" s="534"/>
+      <c r="H25" s="538"/>
+      <c r="I25" s="539"/>
+      <c r="J25" s="540"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="522" t="s">
+      <c r="B26" s="545" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="523"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="525" t="str">
+      <c r="C26" s="546"/>
+      <c r="D26" s="547"/>
+      <c r="E26" s="529" t="str">
         <f>Данные!C15</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F26" s="526"/>
-      <c r="G26" s="529">
+      <c r="F26" s="530"/>
+      <c r="G26" s="533">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="531"/>
-      <c r="I26" s="532"/>
-      <c r="J26" s="533"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="521"/>
-      <c r="B27" s="537" t="str">
+      <c r="H26" s="535"/>
+      <c r="I26" s="536"/>
+      <c r="J26" s="537"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="528"/>
+      <c r="B27" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C27" s="538"/>
-      <c r="D27" s="539"/>
-      <c r="E27" s="541"/>
-      <c r="F27" s="528"/>
-      <c r="G27" s="530"/>
-      <c r="H27" s="534"/>
-      <c r="I27" s="535"/>
-      <c r="J27" s="536"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="520">
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="531"/>
+      <c r="F27" s="532"/>
+      <c r="G27" s="534"/>
+      <c r="H27" s="538"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="540"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="527">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="522" t="s">
+      <c r="B28" s="545" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="523"/>
-      <c r="D28" s="524"/>
-      <c r="E28" s="525" t="str">
+      <c r="C28" s="546"/>
+      <c r="D28" s="547"/>
+      <c r="E28" s="529" t="str">
         <f>Данные!C16</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F28" s="526"/>
-      <c r="G28" s="529">
+      <c r="F28" s="530"/>
+      <c r="G28" s="533">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="531"/>
-      <c r="I28" s="532"/>
-      <c r="J28" s="533"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="521"/>
-      <c r="B29" s="537" t="str">
+      <c r="H28" s="535"/>
+      <c r="I28" s="536"/>
+      <c r="J28" s="537"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="528"/>
+      <c r="B29" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C29" s="538"/>
-      <c r="D29" s="539"/>
-      <c r="E29" s="541"/>
-      <c r="F29" s="528"/>
-      <c r="G29" s="530"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="535"/>
-      <c r="J29" s="536"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="520">
+      <c r="C29" s="524"/>
+      <c r="D29" s="525"/>
+      <c r="E29" s="531"/>
+      <c r="F29" s="532"/>
+      <c r="G29" s="534"/>
+      <c r="H29" s="538"/>
+      <c r="I29" s="539"/>
+      <c r="J29" s="540"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="527">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="522" t="s">
+      <c r="B30" s="545" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="523"/>
-      <c r="D30" s="524"/>
-      <c r="E30" s="525" t="str">
+      <c r="C30" s="546"/>
+      <c r="D30" s="547"/>
+      <c r="E30" s="529" t="str">
         <f>Данные!C17</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F30" s="526"/>
-      <c r="G30" s="529">
+      <c r="F30" s="530"/>
+      <c r="G30" s="533">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="531"/>
-      <c r="I30" s="532"/>
-      <c r="J30" s="533"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="521"/>
-      <c r="B31" s="537" t="str">
+      <c r="H30" s="535"/>
+      <c r="I30" s="536"/>
+      <c r="J30" s="537"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="528"/>
+      <c r="B31" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C31" s="538"/>
-      <c r="D31" s="539"/>
-      <c r="E31" s="527"/>
-      <c r="F31" s="528"/>
-      <c r="G31" s="530"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="535"/>
-      <c r="J31" s="536"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="520">
+      <c r="C31" s="524"/>
+      <c r="D31" s="525"/>
+      <c r="E31" s="548"/>
+      <c r="F31" s="532"/>
+      <c r="G31" s="534"/>
+      <c r="H31" s="538"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="540"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="522" t="s">
+      <c r="B32" s="545" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="523"/>
-      <c r="D32" s="524"/>
-      <c r="E32" s="525" t="str">
+      <c r="C32" s="546"/>
+      <c r="D32" s="547"/>
+      <c r="E32" s="529" t="str">
         <f>Данные!C18</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F32" s="526"/>
-      <c r="G32" s="529">
+      <c r="F32" s="530"/>
+      <c r="G32" s="533">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="531"/>
-      <c r="I32" s="532"/>
-      <c r="J32" s="533"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="521"/>
-      <c r="B33" s="537" t="str">
+      <c r="H32" s="535"/>
+      <c r="I32" s="536"/>
+      <c r="J32" s="537"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="528"/>
+      <c r="B33" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C33" s="538"/>
-      <c r="D33" s="539"/>
-      <c r="E33" s="527"/>
-      <c r="F33" s="528"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="535"/>
-      <c r="J33" s="536"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="520">
+      <c r="C33" s="524"/>
+      <c r="D33" s="525"/>
+      <c r="E33" s="548"/>
+      <c r="F33" s="532"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="538"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="540"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="522" t="s">
+      <c r="B34" s="545" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="523"/>
-      <c r="D34" s="524"/>
-      <c r="E34" s="525" t="str">
+      <c r="C34" s="546"/>
+      <c r="D34" s="547"/>
+      <c r="E34" s="529" t="str">
         <f>Данные!C19</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F34" s="526"/>
-      <c r="G34" s="529">
+      <c r="F34" s="530"/>
+      <c r="G34" s="533">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="531"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="533"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="521"/>
-      <c r="B35" s="537" t="str">
+      <c r="H34" s="535"/>
+      <c r="I34" s="536"/>
+      <c r="J34" s="537"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="528"/>
+      <c r="B35" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C35" s="538"/>
-      <c r="D35" s="539"/>
-      <c r="E35" s="527"/>
-      <c r="F35" s="528"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="535"/>
-      <c r="J35" s="536"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="520">
+      <c r="C35" s="524"/>
+      <c r="D35" s="525"/>
+      <c r="E35" s="548"/>
+      <c r="F35" s="532"/>
+      <c r="G35" s="534"/>
+      <c r="H35" s="538"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="540"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="522" t="s">
+      <c r="B36" s="545" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="523"/>
-      <c r="D36" s="524"/>
-      <c r="E36" s="525">
+      <c r="C36" s="546"/>
+      <c r="D36" s="547"/>
+      <c r="E36" s="529">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F36" s="526"/>
-      <c r="G36" s="529">
+      <c r="F36" s="530"/>
+      <c r="G36" s="533">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="H36" s="531"/>
-      <c r="I36" s="532"/>
-      <c r="J36" s="533"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="540"/>
-      <c r="B37" s="537" t="str">
+      <c r="H36" s="535"/>
+      <c r="I36" s="536"/>
+      <c r="J36" s="537"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="549"/>
+      <c r="B37" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C37" s="538"/>
-      <c r="D37" s="539"/>
-      <c r="E37" s="527"/>
-      <c r="F37" s="528"/>
-      <c r="G37" s="530"/>
-      <c r="H37" s="534"/>
-      <c r="I37" s="535"/>
-      <c r="J37" s="536"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="520">
+      <c r="C37" s="524"/>
+      <c r="D37" s="525"/>
+      <c r="E37" s="548"/>
+      <c r="F37" s="532"/>
+      <c r="G37" s="534"/>
+      <c r="H37" s="538"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="540"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="522" t="s">
+      <c r="B38" s="545" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="523"/>
-      <c r="D38" s="524"/>
-      <c r="E38" s="525">
+      <c r="C38" s="546"/>
+      <c r="D38" s="547"/>
+      <c r="E38" s="529">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="526"/>
-      <c r="G38" s="529">
+      <c r="F38" s="530"/>
+      <c r="G38" s="533">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="531"/>
-      <c r="I38" s="532"/>
-      <c r="J38" s="533"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="540"/>
-      <c r="B39" s="537" t="str">
+      <c r="H38" s="535"/>
+      <c r="I38" s="536"/>
+      <c r="J38" s="537"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="549"/>
+      <c r="B39" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C39" s="538"/>
-      <c r="D39" s="539"/>
-      <c r="E39" s="527"/>
-      <c r="F39" s="528"/>
-      <c r="G39" s="530"/>
-      <c r="H39" s="534"/>
-      <c r="I39" s="535"/>
-      <c r="J39" s="536"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="520">
+      <c r="C39" s="524"/>
+      <c r="D39" s="525"/>
+      <c r="E39" s="548"/>
+      <c r="F39" s="532"/>
+      <c r="G39" s="534"/>
+      <c r="H39" s="538"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="540"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="527">
         <f>A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="522" t="s">
+      <c r="B40" s="545" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="523"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="525" t="str">
+      <c r="C40" s="546"/>
+      <c r="D40" s="547"/>
+      <c r="E40" s="529" t="str">
         <f>Данные!C23</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F40" s="526"/>
-      <c r="G40" s="529">
+      <c r="F40" s="530"/>
+      <c r="G40" s="533">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="H40" s="531"/>
-      <c r="I40" s="532"/>
-      <c r="J40" s="533"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="521"/>
-      <c r="B41" s="537" t="str">
+      <c r="H40" s="535"/>
+      <c r="I40" s="536"/>
+      <c r="J40" s="537"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="528"/>
+      <c r="B41" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C41" s="538"/>
-      <c r="D41" s="539"/>
-      <c r="E41" s="527"/>
-      <c r="F41" s="528"/>
-      <c r="G41" s="530"/>
-      <c r="H41" s="534"/>
-      <c r="I41" s="535"/>
-      <c r="J41" s="536"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="520">
+      <c r="C41" s="524"/>
+      <c r="D41" s="525"/>
+      <c r="E41" s="548"/>
+      <c r="F41" s="532"/>
+      <c r="G41" s="534"/>
+      <c r="H41" s="538"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="540"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="527">
         <f t="shared" ref="A42" si="6">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="522" t="s">
+      <c r="B42" s="545" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="523"/>
-      <c r="D42" s="524"/>
-      <c r="E42" s="525">
+      <c r="C42" s="546"/>
+      <c r="D42" s="547"/>
+      <c r="E42" s="529">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="526"/>
-      <c r="G42" s="529">
+      <c r="F42" s="530"/>
+      <c r="G42" s="533">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="531"/>
-      <c r="I42" s="532"/>
-      <c r="J42" s="533"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="521"/>
-      <c r="B43" s="537" t="str">
+      <c r="H42" s="535"/>
+      <c r="I42" s="536"/>
+      <c r="J42" s="537"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="528"/>
+      <c r="B43" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C43" s="538"/>
-      <c r="D43" s="539"/>
-      <c r="E43" s="527"/>
-      <c r="F43" s="528"/>
-      <c r="G43" s="530"/>
-      <c r="H43" s="534"/>
-      <c r="I43" s="535"/>
-      <c r="J43" s="536"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="520">
+      <c r="C43" s="524"/>
+      <c r="D43" s="525"/>
+      <c r="E43" s="548"/>
+      <c r="F43" s="532"/>
+      <c r="G43" s="534"/>
+      <c r="H43" s="538"/>
+      <c r="I43" s="539"/>
+      <c r="J43" s="540"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="7">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="522" t="s">
+      <c r="B44" s="545" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="523"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="525">
+      <c r="C44" s="546"/>
+      <c r="D44" s="547"/>
+      <c r="E44" s="529">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="526"/>
-      <c r="G44" s="529">
+      <c r="F44" s="530"/>
+      <c r="G44" s="533">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="531"/>
-      <c r="I44" s="532"/>
-      <c r="J44" s="533"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="521"/>
-      <c r="B45" s="537" t="str">
+      <c r="H44" s="535"/>
+      <c r="I44" s="536"/>
+      <c r="J44" s="537"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="528"/>
+      <c r="B45" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C45" s="538"/>
-      <c r="D45" s="539"/>
-      <c r="E45" s="527"/>
-      <c r="F45" s="528"/>
-      <c r="G45" s="530"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="535"/>
-      <c r="J45" s="536"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="520">
+      <c r="C45" s="524"/>
+      <c r="D45" s="525"/>
+      <c r="E45" s="548"/>
+      <c r="F45" s="532"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="538"/>
+      <c r="I45" s="539"/>
+      <c r="J45" s="540"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="8">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="522" t="s">
+      <c r="B46" s="545" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="523"/>
-      <c r="D46" s="524"/>
-      <c r="E46" s="525">
+      <c r="C46" s="546"/>
+      <c r="D46" s="547"/>
+      <c r="E46" s="529">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="526"/>
-      <c r="G46" s="529">
+      <c r="F46" s="530"/>
+      <c r="G46" s="533">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="531"/>
-      <c r="I46" s="532"/>
-      <c r="J46" s="533"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="521"/>
-      <c r="B47" s="537" t="str">
+      <c r="H46" s="535"/>
+      <c r="I46" s="536"/>
+      <c r="J46" s="537"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="528"/>
+      <c r="B47" s="523" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C47" s="538"/>
-      <c r="D47" s="539"/>
-      <c r="E47" s="527"/>
-      <c r="F47" s="528"/>
-      <c r="G47" s="530"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="535"/>
-      <c r="J47" s="536"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="C47" s="524"/>
+      <c r="D47" s="525"/>
+      <c r="E47" s="548"/>
+      <c r="F47" s="532"/>
+      <c r="G47" s="534"/>
+      <c r="H47" s="538"/>
+      <c r="I47" s="539"/>
+      <c r="J47" s="540"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -10977,7 +10999,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -10991,7 +11013,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -11003,7 +11025,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -11019,7 +11041,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -11031,7 +11053,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -11045,7 +11067,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -11056,7 +11078,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -11069,14 +11091,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
+    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -11092,6 +11114,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11108,70 +11194,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11190,7 +11212,7 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
@@ -11203,7 +11225,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11224,49 +11246,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="554"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="556"/>
-      <c r="E2" s="563" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="564"/>
-      <c r="G2" s="564"/>
-      <c r="H2" s="565"/>
-      <c r="I2" s="570" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="571"/>
-      <c r="K2" s="574">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="575"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="566"/>
-      <c r="Q2" s="566"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="557"/>
-      <c r="C3" s="558"/>
-      <c r="D3" s="559"/>
-      <c r="E3" s="567" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="568"/>
-      <c r="G3" s="568"/>
-      <c r="H3" s="569"/>
-      <c r="I3" s="572"/>
-      <c r="J3" s="573"/>
-      <c r="K3" s="576"/>
-      <c r="L3" s="577"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11275,11 +11297,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="560"/>
-      <c r="C4" s="561"/>
-      <c r="D4" s="562"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11296,24 +11318,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11322,24 +11344,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11348,29 +11370,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="507">
+      <c r="C7" s="556"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="591" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="495">
+      <c r="J7" s="559"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11379,7 +11401,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11400,7 +11422,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11433,7 +11455,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11466,7 +11488,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11499,7 +11521,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11532,7 +11554,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11565,7 +11587,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11598,7 +11620,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11631,7 +11653,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11664,7 +11686,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11697,7 +11719,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6">
+    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11730,7 +11752,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11763,7 +11785,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11796,7 +11818,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1">
+    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11829,7 +11851,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1">
+    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -11862,14 +11884,14 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4">
+    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="588" t="s">
+      <c r="B23" s="550" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="589"/>
-      <c r="D23" s="589"/>
-      <c r="E23" s="590"/>
+      <c r="C23" s="551"/>
+      <c r="D23" s="551"/>
+      <c r="E23" s="552"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11889,14 +11911,14 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="578" t="s">
+      <c r="B24" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="579"/>
-      <c r="D24" s="579"/>
-      <c r="E24" s="580"/>
+      <c r="C24" s="589"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="590"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11916,7 +11938,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -11937,37 +11959,30 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="27" spans="1:19">
-      <c r="K27" s="553" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K27" s="563" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="553"/>
-      <c r="M27" s="553"/>
+      <c r="L27" s="563"/>
+      <c r="M27" s="563"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
-    <row r="28" spans="1:19">
-      <c r="N28" s="550" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="550"/>
-      <c r="P28" s="551" t="s">
+      <c r="O28" s="560"/>
+      <c r="P28" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="Q28" s="552"/>
+      <c r="Q28" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -11984,6 +11999,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12013,7 +12035,7 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
@@ -12026,7 +12048,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12047,52 +12069,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="602">
+      <c r="B2" s="599">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="566"/>
-      <c r="Q2" s="566"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12101,11 +12123,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12122,24 +12144,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12148,24 +12170,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12174,29 +12196,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12205,7 +12227,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12226,7 +12248,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12259,7 +12281,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12292,7 +12314,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12325,7 +12347,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12358,7 +12380,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12391,14 +12413,14 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="626" t="s">
+      <c r="B14" s="597" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="627"/>
-      <c r="D14" s="627"/>
-      <c r="E14" s="627"/>
+      <c r="C14" s="598"/>
+      <c r="D14" s="598"/>
+      <c r="E14" s="598"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12418,15 +12440,15 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="588" t="s">
+      <c r="B15" s="550" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="589"/>
-      <c r="D15" s="589"/>
-      <c r="E15" s="589"/>
-      <c r="F15" s="625"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="551"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="596"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12443,14 +12465,14 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="578" t="s">
+      <c r="B16" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="579"/>
-      <c r="D16" s="579"/>
-      <c r="E16" s="580"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12470,7 +12492,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12491,45 +12513,34 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="553" t="s">
+      <c r="L19" s="563" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="553"/>
-      <c r="N19" s="553"/>
+      <c r="M19" s="563"/>
+      <c r="N19" s="563"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="O20" s="550" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O20" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="550"/>
-      <c r="Q20" s="551" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="552"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12543,6 +12554,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12580,7 +12602,7 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -12593,7 +12615,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12614,49 +12636,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="554"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="556"/>
-      <c r="E2" s="563" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="564"/>
-      <c r="G2" s="564"/>
-      <c r="H2" s="565"/>
-      <c r="I2" s="570" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="571"/>
-      <c r="K2" s="574">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="575"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="566"/>
-      <c r="Q2" s="566"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="557"/>
-      <c r="C3" s="558"/>
-      <c r="D3" s="559"/>
-      <c r="E3" s="567" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="568"/>
-      <c r="G3" s="568"/>
-      <c r="H3" s="569"/>
-      <c r="I3" s="572"/>
-      <c r="J3" s="573"/>
-      <c r="K3" s="576"/>
-      <c r="L3" s="577"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12665,11 +12687,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="560"/>
-      <c r="C4" s="561"/>
-      <c r="D4" s="562"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12686,24 +12708,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12712,24 +12734,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12738,29 +12760,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="507">
+      <c r="C7" s="556"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="591" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="495">
+      <c r="J7" s="559"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12769,7 +12791,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12790,7 +12812,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12826,7 +12848,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12862,7 +12884,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -12898,7 +12920,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -12934,7 +12956,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -12970,7 +12992,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13006,7 +13028,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13042,7 +13064,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13078,7 +13100,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13114,7 +13136,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13150,7 +13172,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13186,7 +13208,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13219,7 +13241,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13240,8 +13262,8 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="23" spans="1:24">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L23" s="628" t="s">
         <v>139</v>
       </c>
@@ -13252,18 +13274,25 @@
       <c r="Q23" s="491"/>
       <c r="R23" s="491"/>
     </row>
-    <row r="24" spans="1:24">
-      <c r="O24" s="550" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="O24" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="550"/>
-      <c r="Q24" s="551" t="s">
+      <c r="P24" s="560"/>
+      <c r="Q24" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="552"/>
+      <c r="R24" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13278,13 +13307,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13309,14 +13331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
@@ -13329,7 +13351,7 @@
     <col min="20" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13350,26 +13372,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="554"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="556"/>
-      <c r="E2" s="563" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="564"/>
-      <c r="G2" s="564"/>
-      <c r="H2" s="565"/>
-      <c r="I2" s="570" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="571"/>
-      <c r="K2" s="574">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="575"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13378,21 +13400,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="557"/>
-      <c r="C3" s="558"/>
-      <c r="D3" s="559"/>
-      <c r="E3" s="567" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="568"/>
-      <c r="G3" s="568"/>
-      <c r="H3" s="569"/>
-      <c r="I3" s="572"/>
-      <c r="J3" s="573"/>
-      <c r="K3" s="576"/>
-      <c r="L3" s="577"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13401,11 +13423,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="560"/>
-      <c r="C4" s="561"/>
-      <c r="D4" s="562"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13422,24 +13444,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="503"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13448,24 +13470,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13474,29 +13496,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="507">
+      <c r="C7" s="556"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="591" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="595"/>
-      <c r="K7" s="495">
+      <c r="J7" s="559"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13505,7 +13527,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13526,7 +13548,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13559,7 +13581,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13592,7 +13614,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13625,7 +13647,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13658,7 +13680,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13691,7 +13713,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13724,7 +13746,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13757,7 +13779,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13778,8 +13800,8 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1"/>
-    <row r="18" spans="12:18">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
       <c r="L18" s="628" t="s">
         <v>139</v>
       </c>
@@ -13790,18 +13812,24 @@
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18">
-      <c r="O19" s="550" t="s">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="550"/>
-      <c r="Q19" s="551" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="552"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -13817,12 +13845,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13858,7 +13880,7 @@
       <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -13871,7 +13893,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13892,26 +13914,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="630"/>
       <c r="N2" s="631"/>
       <c r="O2" s="631"/>
@@ -13920,21 +13942,21 @@
       <c r="R2" s="632"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="633"/>
       <c r="N3" s="634"/>
       <c r="O3" s="634"/>
@@ -13943,11 +13965,11 @@
       <c r="R3" s="635"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13964,24 +13986,24 @@
       <c r="R4" s="635"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="633"/>
       <c r="N5" s="634"/>
       <c r="O5" s="634"/>
@@ -13990,24 +14012,24 @@
       <c r="R5" s="635"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="633"/>
       <c r="N6" s="634"/>
       <c r="O6" s="634"/>
@@ -14016,29 +14038,29 @@
       <c r="R6" s="635"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="633"/>
       <c r="N7" s="634"/>
       <c r="O7" s="634"/>
@@ -14047,7 +14069,7 @@
       <c r="R7" s="635"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14068,7 +14090,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14101,7 +14123,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14134,7 +14156,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -14167,7 +14189,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -14200,7 +14222,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1">
+    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="476"/>
       <c r="B13" s="477" t="s">
         <v>3</v>
@@ -14233,7 +14255,7 @@
       <c r="R13" s="484"/>
       <c r="S13" s="485"/>
     </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1">
+    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14266,7 +14288,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14299,7 +14321,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14332,7 +14354,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14365,7 +14387,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1">
+    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14398,7 +14420,7 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="30.6" customHeight="1">
+    <row r="19" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>41</v>
@@ -14429,7 +14451,7 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1">
+    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="96" t="s">
         <v>35</v>
@@ -14460,14 +14482,14 @@
       <c r="R20" s="322"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1">
+    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="578" t="s">
+      <c r="B21" s="588" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="579"/>
-      <c r="D21" s="579"/>
-      <c r="E21" s="580"/>
+      <c r="C21" s="589"/>
+      <c r="D21" s="589"/>
+      <c r="E21" s="590"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14487,7 +14509,7 @@
       <c r="R21" s="326"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="109"/>
@@ -14508,10 +14530,10 @@
       <c r="R22" s="111"/>
       <c r="S22" s="112"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="121"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L24" s="628" t="s">
         <v>139</v>
       </c>
@@ -14522,24 +14544,18 @@
       <c r="Q24" s="491"/>
       <c r="R24" s="491"/>
     </row>
-    <row r="25" spans="1:19">
-      <c r="O25" s="550" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O25" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="550"/>
-      <c r="Q25" s="551" t="s">
+      <c r="P25" s="560"/>
+      <c r="Q25" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="552"/>
+      <c r="R25" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14556,6 +14572,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14585,7 +14607,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -14597,7 +14619,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14618,26 +14640,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="602"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="604"/>
-      <c r="E2" s="611" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="612"/>
-      <c r="G2" s="612"/>
-      <c r="H2" s="613"/>
-      <c r="I2" s="617" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="618"/>
-      <c r="K2" s="621">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="622"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14646,21 +14668,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="605"/>
-      <c r="C3" s="606"/>
-      <c r="D3" s="607"/>
-      <c r="E3" s="614" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="615"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="619"/>
-      <c r="J3" s="620"/>
-      <c r="K3" s="623"/>
-      <c r="L3" s="624"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14669,11 +14691,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="609"/>
-      <c r="D4" s="610"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14690,24 +14712,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="581" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="502" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="597"/>
-      <c r="J5" s="598"/>
-      <c r="K5" s="599"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="503"/>
+      <c r="F5" s="503"/>
+      <c r="G5" s="503"/>
+      <c r="H5" s="504"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="504"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14716,24 +14738,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="596"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="496" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="586"/>
-      <c r="F6" s="586"/>
-      <c r="G6" s="586"/>
-      <c r="H6" s="587"/>
-      <c r="I6" s="597"/>
-      <c r="J6" s="598"/>
-      <c r="K6" s="599"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="504"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14742,29 +14764,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="591" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="507">
+      <c r="C7" s="626"/>
+      <c r="D7" s="505">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="593"/>
-      <c r="F7" s="593"/>
-      <c r="G7" s="593"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="495">
+      <c r="J7" s="626"/>
+      <c r="K7" s="493">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="494"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14773,7 +14795,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14794,7 +14816,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14827,7 +14849,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -14860,7 +14882,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -14893,7 +14915,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1">
+    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="476"/>
       <c r="B12" s="487" t="s">
         <v>3</v>
@@ -14926,7 +14948,7 @@
       <c r="R12" s="490"/>
       <c r="S12" s="485"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -14959,7 +14981,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -14992,7 +15014,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15025,14 +15047,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="578" t="s">
+      <c r="B16" s="588" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="579"/>
-      <c r="D16" s="579"/>
-      <c r="E16" s="580"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15052,7 +15074,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15073,10 +15095,10 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L19" s="628" t="s">
         <v>139</v>
       </c>
@@ -15087,28 +15109,18 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="O20" s="550" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O20" s="560" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="550"/>
-      <c r="Q20" s="551" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="552"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15121,6 +15133,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
@@ -3509,8 +3509,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3603,458 +3601,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4069,6 +3615,464 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6453,25 +6457,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="502" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="496" t="s">
+      <c r="A2" s="503" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="505"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6482,45 +6486,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="507" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="509" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
+      <c r="B5" s="510"/>
+      <c r="C5" s="510"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="511"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="502" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
+      <c r="B7" s="506"/>
+      <c r="C7" s="506"/>
+      <c r="D7" s="506"/>
+      <c r="E7" s="506"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
+      <c r="A8" s="512"/>
+      <c r="B8" s="513"/>
+      <c r="C8" s="513"/>
+      <c r="D8" s="513"/>
+      <c r="E8" s="514"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="495" t="s">
+      <c r="A10" s="502" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="502"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>94</v>
@@ -6531,33 +6535,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+      <c r="A11" s="500"/>
+      <c r="B11" s="501"/>
       <c r="D11" s="369">
         <v>43839</v>
       </c>
-      <c r="F11" s="508" t="s">
+      <c r="F11" s="497" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="508"/>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="509" t="s">
+      <c r="G11" s="497"/>
+      <c r="H11" s="497"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="498" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="509"/>
+      <c r="K11" s="498"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="508" t="s">
+      <c r="F12" s="497" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="508"/>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="509" t="s">
+      <c r="G12" s="497"/>
+      <c r="H12" s="497"/>
+      <c r="I12" s="497"/>
+      <c r="J12" s="498" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="509"/>
+      <c r="K12" s="498"/>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="374" t="s">
@@ -6572,19 +6576,19 @@
       <c r="D13" s="374" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="472" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="508" t="s">
+      <c r="F13" s="497" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="508"/>
-      <c r="H13" s="508"/>
-      <c r="I13" s="508"/>
-      <c r="J13" s="509" t="s">
+      <c r="G13" s="497"/>
+      <c r="H13" s="497"/>
+      <c r="I13" s="497"/>
+      <c r="J13" s="498" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="509"/>
+      <c r="K13" s="498"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="365" t="s">
@@ -6817,11 +6821,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="492" t="s">
+      <c r="A29" s="499" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
+      <c r="B29" s="499"/>
+      <c r="C29" s="499"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6830,12 +6834,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6845,6 +6843,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6898,47 +6902,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6949,9 +6953,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -6970,22 +6974,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -6996,22 +7000,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7022,27 +7026,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7421,28 +7425,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="555"/>
+      <c r="Q22" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7459,11 +7468,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7529,47 +7533,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7580,9 +7584,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7601,22 +7605,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7627,22 +7631,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7653,27 +7657,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8002,12 +8006,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="638" t="s">
+      <c r="B18" s="644" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="639"/>
-      <c r="D18" s="639"/>
-      <c r="E18" s="640"/>
+      <c r="C18" s="645"/>
+      <c r="D18" s="645"/>
+      <c r="E18" s="646"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8050,28 +8054,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="555"/>
+      <c r="Q22" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8085,15 +8098,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8168,47 +8172,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8219,9 +8223,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8240,22 +8244,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8266,22 +8270,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8292,27 +8296,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8623,28 +8627,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8661,11 +8670,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8722,47 +8726,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="643">
+      <c r="J2" s="623"/>
+      <c r="K2" s="649">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="L2" s="644"/>
+      <c r="L2" s="650"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="645"/>
-      <c r="L3" s="646"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="652"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8773,9 +8777,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8794,22 +8798,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8820,22 +8824,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8846,27 +8850,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9138,28 +9142,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="555"/>
+      <c r="Q19" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9176,11 +9185,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9210,7 +9214,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9231,11 +9235,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
+      <c r="B1" s="471" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="470" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
@@ -9265,17 +9269,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="512" t="s">
+      <c r="A3" s="520" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
+      <c r="B3" s="520"/>
+      <c r="C3" s="520"/>
+      <c r="D3" s="520"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9584,7 +9588,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="471" t="s">
+      <c r="E14" s="469" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="379"/>
@@ -9783,7 +9787,7 @@
         <f>1-G21</f>
         <v>0.94392488095238092</v>
       </c>
-      <c r="J21" s="648">
+      <c r="J21" s="490">
         <v>305</v>
       </c>
       <c r="K21" s="403"/>
@@ -9808,7 +9812,7 @@
         <f>I21-G22</f>
         <v>0.94392488095238092</v>
       </c>
-      <c r="J22" s="649"/>
+      <c r="J22" s="491"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
@@ -9822,7 +9826,7 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="650"/>
+      <c r="J23" s="492"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -9836,7 +9840,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="651"/>
+      <c r="J24" s="493"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -9850,7 +9854,7 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="650"/>
+      <c r="J25" s="492"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
@@ -9864,7 +9868,7 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="650"/>
+      <c r="J26" s="492"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -9878,7 +9882,7 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="650"/>
+      <c r="J27" s="492"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -9892,7 +9896,7 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="650"/>
+      <c r="J28" s="492"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -9906,7 +9910,7 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="652"/>
+      <c r="J29" s="494"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -9920,7 +9924,7 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="652"/>
+      <c r="J30" s="494"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
@@ -9934,7 +9938,7 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="653"/>
+      <c r="J31" s="495"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
@@ -9945,29 +9949,29 @@
       <c r="B32" s="454"/>
       <c r="C32" s="454"/>
       <c r="D32" s="455"/>
-      <c r="E32" s="456">
+      <c r="E32" s="653">
         <f>SUM(E21:E31)</f>
         <v>895356</v>
       </c>
-      <c r="F32" s="457">
+      <c r="F32" s="654">
         <f>SUM(F21:F31)</f>
         <v>942062</v>
       </c>
-      <c r="G32" s="458">
+      <c r="G32" s="456">
         <f>SUM(G21:G31)</f>
         <v>5.6075119047619047E-2</v>
       </c>
-      <c r="H32" s="459">
+      <c r="H32" s="457">
         <f>A21-F32</f>
         <v>15857938</v>
       </c>
-      <c r="I32" s="460">
+      <c r="I32" s="458">
         <f>1-G32</f>
         <v>0.94392488095238092</v>
       </c>
-      <c r="J32" s="654"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
+      <c r="J32" s="496"/>
+      <c r="K32" s="459"/>
+      <c r="L32" s="459"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="383"/>
@@ -9982,12 +9986,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="513" t="s">
+      <c r="A36" s="521" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="513"/>
-      <c r="C36" s="513"/>
-      <c r="D36" s="513"/>
+      <c r="B36" s="521"/>
+      <c r="C36" s="521"/>
+      <c r="D36" s="521"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -9996,14 +10000,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="514" t="s">
+      <c r="A37" s="522" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="514"/>
-      <c r="C37" s="462" t="s">
+      <c r="B37" s="522"/>
+      <c r="C37" s="460" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="462" t="s">
+      <c r="D37" s="460" t="s">
         <v>134</v>
       </c>
       <c r="E37" s="383"/>
@@ -10014,27 +10018,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="515">
+      <c r="A38" s="523">
         <f>A21-F32</f>
         <v>15857938</v>
       </c>
-      <c r="B38" s="516"/>
-      <c r="C38" s="463">
+      <c r="B38" s="524"/>
+      <c r="C38" s="461">
         <f>1-G32</f>
         <v>0.94392488095238092</v>
       </c>
-      <c r="D38" s="464">
+      <c r="D38" s="462">
         <f>(C38/0.8)*100</f>
         <v>117.99061011904762</v>
       </c>
-      <c r="E38" s="465" t="s">
+      <c r="E38" s="463" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
+      <c r="F38" s="463"/>
+      <c r="G38" s="463"/>
+      <c r="H38" s="463"/>
+      <c r="I38" s="463"/>
+      <c r="J38" s="463"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="383"/>
@@ -10061,8 +10065,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
+      <c r="B41" s="464"/>
+      <c r="C41" s="464"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10072,113 +10076,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="465"/>
+      <c r="B42" s="465"/>
+      <c r="C42" s="465"/>
+      <c r="D42" s="465"/>
+      <c r="E42" s="465"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="516"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
+      <c r="A43" s="466"/>
+      <c r="B43" s="467"/>
+      <c r="C43" s="467"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
+      <c r="F43" s="467"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
+      <c r="H43" s="467"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
+      <c r="A44" s="466"/>
+      <c r="B44" s="467"/>
+      <c r="C44" s="467"/>
+      <c r="D44" s="467"/>
+      <c r="E44" s="467"/>
+      <c r="F44" s="467"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
+      <c r="H44" s="467"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
+      <c r="A45" s="466"/>
+      <c r="B45" s="467"/>
+      <c r="C45" s="467"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
+      <c r="F45" s="467"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
+      <c r="H45" s="467"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
+      <c r="A46" s="466"/>
+      <c r="B46" s="467"/>
+      <c r="C46" s="467"/>
+      <c r="D46" s="467"/>
+      <c r="E46" s="467"/>
+      <c r="F46" s="467"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
+      <c r="H46" s="467"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
+      <c r="A47" s="466"/>
+      <c r="B47" s="467"/>
+      <c r="C47" s="467"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
+      <c r="F47" s="467"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
+      <c r="H47" s="467"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
+      <c r="A48" s="466"/>
+      <c r="B48" s="467"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
+      <c r="D48" s="468"/>
+      <c r="E48" s="468"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
+      <c r="A49" s="466"/>
+      <c r="B49" s="467"/>
+      <c r="C49" s="467"/>
+      <c r="D49" s="467"/>
+      <c r="E49" s="467"/>
+      <c r="F49" s="467"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
+      <c r="H49" s="467"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
+      <c r="A50" s="466"/>
+      <c r="B50" s="467"/>
+      <c r="C50" s="467"/>
+      <c r="D50" s="467"/>
+      <c r="E50" s="467"/>
+      <c r="F50" s="467"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
+      <c r="H50" s="467"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
+      <c r="A51" s="466"/>
+      <c r="B51" s="467"/>
+      <c r="C51" s="467"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
+      <c r="F51" s="467"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
+      <c r="H51" s="467"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="383"/>
-      <c r="B52" s="510"/>
-      <c r="C52" s="510"/>
-      <c r="D52" s="511"/>
-      <c r="E52" s="465"/>
+      <c r="B52" s="518"/>
+      <c r="C52" s="518"/>
+      <c r="D52" s="519"/>
+      <c r="E52" s="463"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10186,31 +10190,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="465"/>
+      <c r="B53" s="465"/>
+      <c r="C53" s="465"/>
+      <c r="D53" s="465"/>
+      <c r="E53" s="465"/>
+      <c r="F53" s="465"/>
+      <c r="G53" s="465"/>
+      <c r="H53" s="465"/>
+      <c r="I53" s="515"/>
+      <c r="J53" s="516"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="468"/>
+      <c r="A54" s="466"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="H54" s="467"/>
+      <c r="I54" s="517"/>
+      <c r="J54" s="517"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="468"/>
+      <c r="A55" s="466"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10218,8 +10222,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
+      <c r="I55" s="517"/>
+      <c r="J55" s="517"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="383"/>
@@ -10232,26 +10236,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
+      <c r="B61" s="515"/>
+      <c r="C61" s="516"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="B68" s="515"/>
+      <c r="C68" s="516"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10334,47 +10338,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="550" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="550"/>
+      <c r="C11" s="550"/>
+      <c r="D11" s="550"/>
+      <c r="E11" s="550"/>
+      <c r="F11" s="550"/>
+      <c r="G11" s="550"/>
+      <c r="H11" s="550"/>
+      <c r="I11" s="550"/>
+      <c r="J11" s="550"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="549" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="549"/>
+      <c r="C12" s="549"/>
+      <c r="D12" s="549"/>
+      <c r="E12" s="549"/>
+      <c r="F12" s="549"/>
+      <c r="G12" s="549"/>
+      <c r="H12" s="549"/>
+      <c r="I12" s="549"/>
+      <c r="J12" s="549"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="551" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
+      <c r="B13" s="550"/>
+      <c r="C13" s="550"/>
+      <c r="D13" s="550"/>
+      <c r="E13" s="550"/>
+      <c r="F13" s="550"/>
+      <c r="G13" s="550"/>
+      <c r="H13" s="550"/>
+      <c r="I13" s="550"/>
+      <c r="J13" s="550"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="304" t="s">
@@ -10499,493 +10503,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="547" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="547"/>
+      <c r="D22" s="547"/>
+      <c r="E22" s="547" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="547"/>
+      <c r="G22" s="548" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="547" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="547"/>
+      <c r="J22" s="547"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="547"/>
+      <c r="B23" s="547"/>
+      <c r="C23" s="547"/>
+      <c r="D23" s="547"/>
+      <c r="E23" s="547"/>
+      <c r="F23" s="547"/>
+      <c r="G23" s="548"/>
+      <c r="H23" s="547"/>
+      <c r="I23" s="547"/>
+      <c r="J23" s="547"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="527">
+      <c r="A24" s="525">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="552" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="553"/>
+      <c r="D24" s="554"/>
+      <c r="E24" s="530" t="str">
         <f>Данные!C14</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="531"/>
+      <c r="G24" s="534">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="538"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="A25" s="526"/>
+      <c r="B25" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="543"/>
+      <c r="D25" s="544"/>
+      <c r="E25" s="546"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="535"/>
+      <c r="H25" s="539"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="541"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="527">
+      <c r="A26" s="525">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="527" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
-      <c r="E26" s="529" t="str">
+      <c r="C26" s="528"/>
+      <c r="D26" s="529"/>
+      <c r="E26" s="530" t="str">
         <f>Данные!C15</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="531"/>
+      <c r="G26" s="534">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="A27" s="526"/>
+      <c r="B27" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="543"/>
+      <c r="D27" s="544"/>
+      <c r="E27" s="546"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="535"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="527">
+      <c r="A28" s="525">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="527" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="528"/>
+      <c r="D28" s="529"/>
+      <c r="E28" s="530" t="str">
         <f>Данные!C16</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="531"/>
+      <c r="G28" s="534">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="536"/>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+      <c r="A29" s="526"/>
+      <c r="B29" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="543"/>
+      <c r="D29" s="544"/>
+      <c r="E29" s="546"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="535"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="527">
+      <c r="A30" s="525">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="527" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="529" t="str">
+      <c r="C30" s="528"/>
+      <c r="D30" s="529"/>
+      <c r="E30" s="530" t="str">
         <f>Данные!C17</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="531"/>
+      <c r="G30" s="534">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="A31" s="526"/>
+      <c r="B31" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="548"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="543"/>
+      <c r="D31" s="544"/>
+      <c r="E31" s="532"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="527">
+      <c r="A32" s="525">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="545" t="s">
+      <c r="B32" s="527" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="528"/>
+      <c r="D32" s="529"/>
+      <c r="E32" s="530" t="str">
         <f>Данные!C18</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="531"/>
+      <c r="G32" s="534">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="536"/>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+      <c r="A33" s="526"/>
+      <c r="B33" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="543"/>
+      <c r="D33" s="544"/>
+      <c r="E33" s="532"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="527">
+      <c r="A34" s="525">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="545" t="s">
+      <c r="B34" s="527" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="546"/>
-      <c r="D34" s="547"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="528"/>
+      <c r="D34" s="529"/>
+      <c r="E34" s="530" t="str">
         <f>Данные!C19</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="531"/>
+      <c r="G34" s="534">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+      <c r="A35" s="526"/>
+      <c r="B35" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="548"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="543"/>
+      <c r="D35" s="544"/>
+      <c r="E35" s="532"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="527">
+      <c r="A36" s="525">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="545" t="s">
+      <c r="B36" s="527" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="546"/>
-      <c r="D36" s="547"/>
-      <c r="E36" s="529">
+      <c r="C36" s="528"/>
+      <c r="D36" s="529"/>
+      <c r="E36" s="530">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="531"/>
+      <c r="G36" s="534">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="549"/>
-      <c r="B37" s="523" t="str">
+      <c r="A37" s="545"/>
+      <c r="B37" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="543"/>
+      <c r="D37" s="544"/>
+      <c r="E37" s="532"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="535"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="527">
+      <c r="A38" s="525">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="545" t="s">
+      <c r="B38" s="527" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="529">
+      <c r="C38" s="528"/>
+      <c r="D38" s="529"/>
+      <c r="E38" s="530">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="531"/>
+      <c r="G38" s="534">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="549"/>
-      <c r="B39" s="523" t="str">
+      <c r="A39" s="545"/>
+      <c r="B39" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="548"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="543"/>
+      <c r="D39" s="544"/>
+      <c r="E39" s="532"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="535"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="527">
+      <c r="A40" s="525">
         <f>A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="527" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="546"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="528"/>
+      <c r="D40" s="529"/>
+      <c r="E40" s="530" t="str">
         <f>Данные!C23</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="531"/>
+      <c r="G40" s="534">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="A41" s="526"/>
+      <c r="B41" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="548"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="543"/>
+      <c r="D41" s="544"/>
+      <c r="E41" s="532"/>
+      <c r="F41" s="533"/>
+      <c r="G41" s="535"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="527">
+      <c r="A42" s="525">
         <f t="shared" ref="A42" si="6">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="545" t="s">
+      <c r="B42" s="527" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="546"/>
-      <c r="D42" s="547"/>
-      <c r="E42" s="529">
+      <c r="C42" s="528"/>
+      <c r="D42" s="529"/>
+      <c r="E42" s="530">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="531"/>
+      <c r="G42" s="534">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+      <c r="A43" s="526"/>
+      <c r="B43" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="543"/>
+      <c r="D43" s="544"/>
+      <c r="E43" s="532"/>
+      <c r="F43" s="533"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="527">
+      <c r="A44" s="525">
         <f t="shared" ref="A44" si="7">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="545" t="s">
+      <c r="B44" s="527" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="546"/>
-      <c r="D44" s="547"/>
-      <c r="E44" s="529">
+      <c r="C44" s="528"/>
+      <c r="D44" s="529"/>
+      <c r="E44" s="530">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="531"/>
+      <c r="G44" s="534">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+      <c r="A45" s="526"/>
+      <c r="B45" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="543"/>
+      <c r="D45" s="544"/>
+      <c r="E45" s="532"/>
+      <c r="F45" s="533"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="527">
+      <c r="A46" s="525">
         <f t="shared" ref="A46" si="8">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="527" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="547"/>
-      <c r="E46" s="529">
+      <c r="C46" s="528"/>
+      <c r="D46" s="529"/>
+      <c r="E46" s="530">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="531"/>
+      <c r="G46" s="534">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="A47" s="526"/>
+      <c r="B47" s="542" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="548"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="543"/>
+      <c r="D47" s="544"/>
+      <c r="E47" s="532"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="304"/>
@@ -11114,70 +11118,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11194,6 +11134,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11248,47 +11252,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11299,9 +11303,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11320,22 +11324,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11346,22 +11350,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11372,27 +11376,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="505">
+      <c r="C7" s="597"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="493">
+      <c r="J7" s="600"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11886,12 +11890,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="550" t="s">
+      <c r="B23" s="593" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="551"/>
-      <c r="D23" s="551"/>
-      <c r="E23" s="552"/>
+      <c r="C23" s="594"/>
+      <c r="D23" s="594"/>
+      <c r="E23" s="595"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11913,12 +11917,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="588" t="s">
+      <c r="B24" s="583" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="589"/>
-      <c r="D24" s="589"/>
-      <c r="E24" s="590"/>
+      <c r="C24" s="584"/>
+      <c r="D24" s="584"/>
+      <c r="E24" s="585"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11961,28 +11965,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="563" t="s">
+      <c r="K27" s="558" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="563"/>
-      <c r="M27" s="563"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
+      <c r="L27" s="558"/>
+      <c r="M27" s="558"/>
+      <c r="N27" s="473"/>
+      <c r="O27" s="473"/>
+      <c r="P27" s="489"/>
+      <c r="Q27" s="489"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="560" t="s">
+      <c r="N28" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="560"/>
-      <c r="P28" s="561" t="s">
+      <c r="O28" s="555"/>
+      <c r="P28" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="Q28" s="562"/>
+      <c r="Q28" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -11999,13 +12010,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12071,50 +12075,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="599">
+      <c r="B2" s="607">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12125,9 +12129,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12146,22 +12150,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12172,22 +12176,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12198,27 +12202,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12415,12 +12419,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="597" t="s">
+      <c r="B14" s="631" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="598"/>
-      <c r="D14" s="598"/>
-      <c r="E14" s="598"/>
+      <c r="C14" s="632"/>
+      <c r="D14" s="632"/>
+      <c r="E14" s="632"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12442,13 +12446,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="550" t="s">
+      <c r="B15" s="593" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="551"/>
-      <c r="D15" s="551"/>
-      <c r="E15" s="551"/>
-      <c r="F15" s="596"/>
+      <c r="C15" s="594"/>
+      <c r="D15" s="594"/>
+      <c r="E15" s="594"/>
+      <c r="F15" s="630"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12467,12 +12471,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="583" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="584"/>
+      <c r="D16" s="584"/>
+      <c r="E16" s="585"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12519,28 +12523,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="563" t="s">
+      <c r="L19" s="558" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="563"/>
-      <c r="N19" s="563"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="558"/>
+      <c r="N19" s="558"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12554,17 +12569,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12638,47 +12642,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="571"/>
+      <c r="Q2" s="571"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12689,9 +12693,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12710,22 +12714,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12736,22 +12740,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12762,27 +12766,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="505">
+      <c r="C7" s="597"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="493">
+      <c r="J7" s="600"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13264,35 +13268,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="628" t="s">
+      <c r="L23" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="628"/>
-      <c r="N23" s="628"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="M23" s="633"/>
+      <c r="N23" s="633"/>
+      <c r="O23" s="473"/>
+      <c r="P23" s="473"/>
+      <c r="Q23" s="489"/>
+      <c r="R23" s="489"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="560" t="s">
+      <c r="O24" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="560"/>
-      <c r="Q24" s="561" t="s">
+      <c r="P24" s="555"/>
+      <c r="Q24" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="562"/>
+      <c r="R24" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13307,6 +13304,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13374,47 +13378,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="559"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="561"/>
+      <c r="E2" s="568" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="569"/>
+      <c r="G2" s="569"/>
+      <c r="H2" s="570"/>
+      <c r="I2" s="575" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="576"/>
+      <c r="K2" s="579">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="580"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="562"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="564"/>
+      <c r="E3" s="572" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="574"/>
+      <c r="I3" s="577"/>
+      <c r="J3" s="578"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="582"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13425,9 +13429,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="565"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="567"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13446,22 +13450,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="587"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="588"/>
+      <c r="J5" s="589"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13472,22 +13476,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="590"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="588"/>
+      <c r="J6" s="589"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13498,27 +13502,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="505">
+      <c r="C7" s="597"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="596" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="493">
+      <c r="J7" s="600"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13802,34 +13806,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="555"/>
+      <c r="Q19" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -13845,6 +13843,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13916,60 +13920,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="619"/>
-      <c r="M2" s="630"/>
-      <c r="N2" s="631"/>
-      <c r="O2" s="631"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
-      <c r="R2" s="632"/>
+      <c r="L2" s="627"/>
+      <c r="M2" s="635"/>
+      <c r="N2" s="636"/>
+      <c r="O2" s="636"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
+      <c r="R2" s="637"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
-      <c r="M3" s="633"/>
-      <c r="N3" s="634"/>
-      <c r="O3" s="634"/>
-      <c r="P3" s="634"/>
-      <c r="Q3" s="634"/>
-      <c r="R3" s="635"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
+      <c r="M3" s="638"/>
+      <c r="N3" s="639"/>
+      <c r="O3" s="639"/>
+      <c r="P3" s="639"/>
+      <c r="Q3" s="639"/>
+      <c r="R3" s="640"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13978,95 +13982,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="633"/>
-      <c r="N4" s="634"/>
-      <c r="O4" s="634"/>
-      <c r="P4" s="634"/>
-      <c r="Q4" s="634"/>
-      <c r="R4" s="635"/>
+      <c r="M4" s="638"/>
+      <c r="N4" s="639"/>
+      <c r="O4" s="639"/>
+      <c r="P4" s="639"/>
+      <c r="Q4" s="639"/>
+      <c r="R4" s="640"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="633"/>
-      <c r="N5" s="634"/>
-      <c r="O5" s="634"/>
-      <c r="P5" s="634"/>
-      <c r="Q5" s="634"/>
-      <c r="R5" s="635"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
+      <c r="M5" s="638"/>
+      <c r="N5" s="639"/>
+      <c r="O5" s="639"/>
+      <c r="P5" s="639"/>
+      <c r="Q5" s="639"/>
+      <c r="R5" s="640"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="633"/>
-      <c r="N6" s="634"/>
-      <c r="O6" s="634"/>
-      <c r="P6" s="634"/>
-      <c r="Q6" s="634"/>
-      <c r="R6" s="635"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
+      <c r="M6" s="638"/>
+      <c r="N6" s="639"/>
+      <c r="O6" s="639"/>
+      <c r="P6" s="639"/>
+      <c r="Q6" s="639"/>
+      <c r="R6" s="640"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="633"/>
-      <c r="N7" s="634"/>
-      <c r="O7" s="634"/>
-      <c r="P7" s="634"/>
-      <c r="Q7" s="634"/>
-      <c r="R7" s="635"/>
+      <c r="L7" s="501"/>
+      <c r="M7" s="638"/>
+      <c r="N7" s="639"/>
+      <c r="O7" s="639"/>
+      <c r="P7" s="639"/>
+      <c r="Q7" s="639"/>
+      <c r="R7" s="640"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14222,38 +14226,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="484" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="474"/>
+      <c r="B13" s="475" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478">
+      <c r="C13" s="476">
         <v>38.1</v>
       </c>
-      <c r="D13" s="479">
+      <c r="D13" s="477">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="477">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
+      <c r="H13" s="479"/>
+      <c r="I13" s="480"/>
+      <c r="J13" s="480"/>
+      <c r="K13" s="480"/>
+      <c r="L13" s="480"/>
+      <c r="M13" s="481"/>
+      <c r="N13" s="481"/>
+      <c r="O13" s="481"/>
+      <c r="P13" s="481"/>
+      <c r="Q13" s="481"/>
+      <c r="R13" s="482"/>
+      <c r="S13" s="483"/>
     </row>
     <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
@@ -14484,12 +14488,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="588" t="s">
+      <c r="B21" s="583" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="589"/>
-      <c r="D21" s="589"/>
-      <c r="E21" s="590"/>
+      <c r="C21" s="584"/>
+      <c r="D21" s="584"/>
+      <c r="E21" s="585"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14534,28 +14538,34 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="628" t="s">
+      <c r="L24" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="628"/>
-      <c r="N24" s="628"/>
-      <c r="O24" s="475"/>
-      <c r="P24" s="475"/>
-      <c r="Q24" s="491"/>
-      <c r="R24" s="491"/>
+      <c r="M24" s="633"/>
+      <c r="N24" s="633"/>
+      <c r="O24" s="473"/>
+      <c r="P24" s="473"/>
+      <c r="Q24" s="489"/>
+      <c r="R24" s="489"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O25" s="560" t="s">
+      <c r="O25" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="560"/>
-      <c r="Q25" s="561" t="s">
+      <c r="P25" s="555"/>
+      <c r="Q25" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="562"/>
+      <c r="R25" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14572,12 +14582,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14642,47 +14646,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14693,9 +14697,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14714,22 +14718,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="586" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="601"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="602"/>
+      <c r="J5" s="603"/>
+      <c r="K5" s="604"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14740,22 +14744,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="586" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="591"/>
+      <c r="F6" s="591"/>
+      <c r="G6" s="591"/>
+      <c r="H6" s="592"/>
+      <c r="I6" s="602"/>
+      <c r="J6" s="603"/>
+      <c r="K6" s="604"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14766,27 +14770,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="596" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="505">
+      <c r="C7" s="605"/>
+      <c r="D7" s="512">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="598"/>
+      <c r="F7" s="598"/>
+      <c r="G7" s="598"/>
+      <c r="H7" s="599"/>
+      <c r="I7" s="606" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="493">
+      <c r="J7" s="605"/>
+      <c r="K7" s="500">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14915,38 +14919,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="474"/>
+      <c r="B12" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488">
+      <c r="C12" s="486">
         <v>28.6</v>
       </c>
-      <c r="D12" s="482">
+      <c r="D12" s="480">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="480">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
+      <c r="H12" s="487"/>
+      <c r="I12" s="480"/>
+      <c r="J12" s="480"/>
+      <c r="K12" s="480"/>
+      <c r="L12" s="480"/>
+      <c r="M12" s="480"/>
+      <c r="N12" s="480"/>
+      <c r="O12" s="480"/>
+      <c r="P12" s="480"/>
+      <c r="Q12" s="480"/>
+      <c r="R12" s="488"/>
+      <c r="S12" s="483"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
@@ -15049,12 +15053,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="583" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="584"/>
+      <c r="D16" s="584"/>
+      <c r="E16" s="585"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15099,28 +15103,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="633" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="555" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="555"/>
+      <c r="Q20" s="556" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="557"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15133,16 +15147,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-B-28-2-450-19 Калина 0.45\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B604E-987C-4D1F-959F-5FF502B91346}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,7 +41,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -503,13 +511,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2186,7 +2194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="655">
@@ -3363,7 +3371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3378,7 +3386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3440,25 +3448,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3470,11 +3478,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3484,7 +3492,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3498,11 +3506,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
@@ -3512,13 +3520,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3531,7 +3539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3616,6 +3624,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3682,10 +3696,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4068,17 +4082,11 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4349,7 +4357,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4395,7 +4409,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4440,7 +4460,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4484,7 +4510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4533,7 +4565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4579,7 +4617,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4623,7 +4667,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4667,7 +4717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4716,7 +4772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4762,7 +4824,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4806,7 +4874,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4850,7 +4924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4899,7 +4979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4945,7 +5031,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4989,7 +5081,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5033,7 +5131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5082,7 +5186,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5128,7 +5238,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5172,7 +5288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5216,7 +5338,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5265,7 +5393,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5309,7 +5443,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5353,7 +5493,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5397,7 +5543,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5440,7 +5592,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5486,7 +5644,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5530,7 +5694,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5574,7 +5744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5623,7 +5799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5669,7 +5851,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5713,7 +5901,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5757,7 +5951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5806,7 +6006,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5852,7 +6058,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5896,7 +6108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5940,7 +6158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5989,7 +6213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6035,7 +6265,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6079,7 +6315,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6123,7 +6365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6231,6 +6479,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6266,6 +6531,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6441,90 +6723,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="502" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="504" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="503" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="505" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="505"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="507" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="509" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="509" t="s">
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="510"/>
-      <c r="C5" s="510"/>
-      <c r="D5" s="510"/>
-      <c r="E5" s="511"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="502" t="s">
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="513"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="504" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="506"/>
-      <c r="C7" s="506"/>
-      <c r="D7" s="506"/>
-      <c r="E7" s="506"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="512"/>
-      <c r="B8" s="513"/>
-      <c r="C8" s="513"/>
-      <c r="D8" s="513"/>
-      <c r="E8" s="514"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="502" t="s">
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="516"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="504" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="502"/>
+      <c r="B10" s="504"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>94</v>
@@ -6534,36 +6816,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="500"/>
-      <c r="B11" s="501"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="502"/>
+      <c r="B11" s="503"/>
       <c r="D11" s="369">
         <v>43839</v>
       </c>
-      <c r="F11" s="497" t="s">
+      <c r="F11" s="499" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="497"/>
-      <c r="H11" s="497"/>
-      <c r="I11" s="497"/>
-      <c r="J11" s="498" t="s">
+      <c r="G11" s="499"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="499"/>
+      <c r="J11" s="500" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="498"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="497" t="s">
+      <c r="K11" s="500"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="499" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="497"/>
-      <c r="H12" s="497"/>
-      <c r="I12" s="497"/>
-      <c r="J12" s="498" t="s">
+      <c r="G12" s="499"/>
+      <c r="H12" s="499"/>
+      <c r="I12" s="499"/>
+      <c r="J12" s="500" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="498"/>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="K12" s="500"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
         <v>88</v>
       </c>
@@ -6579,18 +6861,18 @@
       <c r="E13" s="472" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="497" t="s">
+      <c r="F13" s="499" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="497"/>
-      <c r="H13" s="497"/>
-      <c r="I13" s="497"/>
-      <c r="J13" s="498" t="s">
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
+      <c r="J13" s="500" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="498"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="500"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
         <v>43</v>
       </c>
@@ -6608,7 +6890,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="365" t="s">
         <v>44</v>
       </c>
@@ -6626,7 +6908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="365" t="s">
         <v>38</v>
       </c>
@@ -6644,7 +6926,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="365" t="s">
         <v>23</v>
       </c>
@@ -6662,7 +6944,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="365" t="s">
         <v>47</v>
       </c>
@@ -6680,7 +6962,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="365" t="s">
         <v>90</v>
       </c>
@@ -6698,7 +6980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="365" t="s">
         <v>51</v>
       </c>
@@ -6712,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="365" t="s">
         <v>53</v>
       </c>
@@ -6726,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="365" t="s">
         <v>91</v>
       </c>
@@ -6738,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="365" t="s">
         <v>56</v>
       </c>
@@ -6756,7 +7038,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="365" t="s">
         <v>70</v>
       </c>
@@ -6770,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="365" t="s">
         <v>92</v>
       </c>
@@ -6782,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="367" t="s">
         <v>55</v>
       </c>
@@ -6796,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="367" t="s">
         <v>106</v>
       </c>
@@ -6805,7 +7087,7 @@
       <c r="D27" s="366"/>
       <c r="E27" s="366"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="371"/>
       <c r="D28" s="370"/>
       <c r="E28" s="370">
@@ -6820,14 +7102,14 @@
         <v>273.19999999999982</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="499" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="501" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="499"/>
-      <c r="C29" s="499"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="501"/>
+      <c r="C29" s="501"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -6856,7 +7138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6866,20 +7148,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="162" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="162" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="162" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="162" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="162" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="162" customWidth="1"/>
     <col min="8" max="18" width="9" style="162" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="162" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="162"/>
+    <col min="19" max="19" width="1.42578125" style="162" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -6900,49 +7182,49 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -6951,11 +7233,11 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -6972,24 +7254,24 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -6998,24 +7280,24 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7024,29 +7306,29 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7055,7 +7337,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -7076,7 +7358,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7109,7 +7391,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -7142,7 +7424,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -7173,7 +7455,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -7206,7 +7488,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -7239,7 +7521,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -7272,7 +7554,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -7305,7 +7587,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -7338,7 +7620,7 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -7369,7 +7651,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -7402,7 +7684,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -7423,27 +7705,27 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="633" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="633"/>
-      <c r="N21" s="633"/>
+      <c r="M21" s="635"/>
+      <c r="N21" s="635"/>
       <c r="O21" s="473"/>
       <c r="P21" s="473"/>
       <c r="Q21" s="489"/>
       <c r="R21" s="489"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="555" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
+      <c r="P22" s="557"/>
+      <c r="Q22" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7487,7 +7769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7497,20 +7779,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="201" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="201" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="201" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="201" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="201" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="201" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="201" customWidth="1"/>
     <col min="8" max="18" width="9" style="201" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="201" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="201"/>
+    <col min="19" max="19" width="1.42578125" style="201" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -7531,49 +7813,49 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7582,11 +7864,11 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7603,24 +7885,24 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7629,24 +7911,24 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7655,29 +7937,29 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -7686,7 +7968,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -7707,7 +7989,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -7740,7 +8022,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -7773,7 +8055,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -7806,7 +8088,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -7839,7 +8121,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -7872,7 +8154,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -7905,7 +8187,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -7938,7 +8220,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -7971,7 +8253,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -8004,14 +8286,14 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="644" t="s">
+      <c r="B18" s="646" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="645"/>
-      <c r="D18" s="645"/>
-      <c r="E18" s="646"/>
+      <c r="C18" s="647"/>
+      <c r="D18" s="647"/>
+      <c r="E18" s="648"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8031,7 +8313,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -8052,27 +8334,27 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L21" s="633" t="s">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L21" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="633"/>
-      <c r="N21" s="633"/>
+      <c r="M21" s="635"/>
+      <c r="N21" s="635"/>
       <c r="O21" s="473"/>
       <c r="P21" s="473"/>
       <c r="Q21" s="489"/>
       <c r="R21" s="489"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="555" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O22" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
+      <c r="P22" s="557"/>
+      <c r="Q22" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8126,7 +8408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8136,20 +8418,20 @@
       <selection pane="bottomRight" activeCell="O19" sqref="O19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8170,49 +8452,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8221,11 +8503,11 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8242,24 +8524,24 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8268,24 +8550,24 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8294,29 +8576,29 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8325,7 +8607,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -8346,7 +8628,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8379,7 +8661,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -8410,7 +8692,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -8441,7 +8723,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -8474,7 +8756,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -8505,7 +8787,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -8538,7 +8820,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -8571,7 +8853,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -8604,7 +8886,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8625,27 +8907,27 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="633" t="s">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="633"/>
-      <c r="N19" s="633"/>
+      <c r="M19" s="635"/>
+      <c r="N19" s="635"/>
       <c r="O19" s="473"/>
       <c r="P19" s="473"/>
       <c r="Q19" s="489"/>
       <c r="R19" s="489"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="555" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -8680,7 +8962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8690,20 +8972,20 @@
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
     <col min="3" max="3" width="11" style="258" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="258" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="258" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="258" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="258" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="258" customWidth="1"/>
     <col min="8" max="18" width="9" style="258" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="258" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="258"/>
+    <col min="19" max="19" width="1.42578125" style="258" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -8724,49 +9006,49 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="649">
+      <c r="J2" s="625"/>
+      <c r="K2" s="651">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="L2" s="650"/>
+      <c r="L2" s="652"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="650"/>
+      <c r="Q2" s="650"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="651"/>
-      <c r="L3" s="652"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="653"/>
+      <c r="L3" s="654"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8775,11 +9057,11 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8796,24 +9078,24 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8822,24 +9104,24 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8848,29 +9130,29 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -8879,7 +9161,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -8900,7 +9182,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -8933,7 +9215,7 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
@@ -8966,7 +9248,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -8999,7 +9281,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -9032,7 +9314,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -9065,7 +9347,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -9098,7 +9380,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -9119,7 +9401,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -9140,27 +9422,27 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="633" t="s">
+    <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="633"/>
-      <c r="N18" s="633"/>
+      <c r="M18" s="635"/>
+      <c r="N18" s="635"/>
       <c r="O18" s="473"/>
       <c r="P18" s="473"/>
       <c r="Q18" s="489"/>
       <c r="R18" s="489"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="555" t="s">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
+      <c r="P19" s="557"/>
+      <c r="Q19" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9210,30 +9492,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="471" t="s">
         <v>110</v>
@@ -9252,7 +9534,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>111</v>
@@ -9268,23 +9550,23 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="522" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -9296,7 +9578,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>113</v>
       </c>
@@ -9326,7 +9608,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -9356,7 +9638,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="398">
         <f>A6+1</f>
         <v>2</v>
@@ -9387,7 +9669,7 @@
       <c r="K7" s="383"/>
       <c r="L7" s="397"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="398">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9418,7 +9700,7 @@
       <c r="K8" s="383"/>
       <c r="L8" s="397"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="398">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9449,7 +9731,7 @@
       <c r="K9" s="383"/>
       <c r="L9" s="397"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="398">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9480,7 +9762,7 @@
       <c r="K10" s="403"/>
       <c r="L10" s="397"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="398">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9511,7 +9793,7 @@
       <c r="K11" s="383"/>
       <c r="L11" s="397"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="398">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9541,7 +9823,7 @@
       <c r="L12" s="397"/>
       <c r="M12" s="405"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="398">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9571,7 +9853,7 @@
       <c r="L13" s="397"/>
       <c r="M13" s="405"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="398">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9604,7 +9886,7 @@
       <c r="K14" s="403"/>
       <c r="L14" s="397"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="398">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9635,7 +9917,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9664,7 +9946,7 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="407">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9693,7 +9975,7 @@
       <c r="K17" s="403"/>
       <c r="L17" s="397"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="414"/>
       <c r="B18" s="415"/>
       <c r="C18" s="383"/>
@@ -9705,7 +9987,7 @@
       <c r="I18" s="383"/>
       <c r="J18" s="383"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="383"/>
       <c r="B19" s="417" t="s">
         <v>120</v>
@@ -9721,7 +10003,7 @@
       <c r="K19" s="418"/>
       <c r="L19" s="418"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="387" t="s">
         <v>121</v>
       </c>
@@ -9755,7 +10037,7 @@
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="422">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -9793,30 +10075,42 @@
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
+      <c r="B22" s="431">
+        <v>43968</v>
+      </c>
+      <c r="C22" s="431">
+        <v>43971</v>
+      </c>
+      <c r="D22" s="431">
+        <v>43972</v>
+      </c>
+      <c r="E22" s="432">
+        <v>694260</v>
+      </c>
+      <c r="F22" s="432">
+        <v>745427</v>
+      </c>
       <c r="G22" s="426">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>4.4370654761904764E-2</v>
       </c>
       <c r="H22" s="433">
         <f>H21-F22</f>
-        <v>15857938</v>
+        <v>15112511</v>
       </c>
       <c r="I22" s="434">
         <f>I21-G22</f>
-        <v>0.94392488095238092</v>
-      </c>
-      <c r="J22" s="491"/>
+        <v>0.8995542261904762</v>
+      </c>
+      <c r="J22" s="491">
+        <v>306</v>
+      </c>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="435"/>
       <c r="B23" s="436"/>
       <c r="C23" s="436"/>
@@ -9830,7 +10124,7 @@
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="435"/>
       <c r="B24" s="375"/>
       <c r="C24" s="375"/>
@@ -9844,7 +10138,7 @@
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="435"/>
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
@@ -9858,7 +10152,7 @@
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="435"/>
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
@@ -9872,7 +10166,7 @@
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="435"/>
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
@@ -9886,7 +10180,7 @@
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="435"/>
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
@@ -9900,7 +10194,7 @@
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
@@ -9914,7 +10208,7 @@
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="435"/>
       <c r="B30" s="436"/>
       <c r="C30" s="436"/>
@@ -9928,7 +10222,7 @@
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="446"/>
       <c r="B31" s="447"/>
       <c r="C31" s="447"/>
@@ -9942,38 +10236,38 @@
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="453" t="s">
         <v>130</v>
       </c>
       <c r="B32" s="454"/>
       <c r="C32" s="454"/>
       <c r="D32" s="455"/>
-      <c r="E32" s="653">
+      <c r="E32" s="497">
         <f>SUM(E21:E31)</f>
-        <v>895356</v>
-      </c>
-      <c r="F32" s="654">
+        <v>1589616</v>
+      </c>
+      <c r="F32" s="498">
         <f>SUM(F21:F31)</f>
-        <v>942062</v>
+        <v>1687489</v>
       </c>
       <c r="G32" s="456">
         <f>SUM(G21:G31)</f>
-        <v>5.6075119047619047E-2</v>
+        <v>0.10044577380952381</v>
       </c>
       <c r="H32" s="457">
         <f>A21-F32</f>
-        <v>15857938</v>
+        <v>15112511</v>
       </c>
       <c r="I32" s="458">
         <f>1-G32</f>
-        <v>0.94392488095238092</v>
+        <v>0.8995542261904762</v>
       </c>
       <c r="J32" s="496"/>
       <c r="K32" s="459"/>
       <c r="L32" s="459"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
       <c r="B35" s="383"/>
       <c r="C35" s="383"/>
@@ -9985,13 +10279,13 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="521" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="523" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="521"/>
-      <c r="C36" s="521"/>
-      <c r="D36" s="521"/>
+      <c r="B36" s="523"/>
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -9999,11 +10293,11 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="522" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="524" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="522"/>
+      <c r="B37" s="524"/>
       <c r="C37" s="460" t="s">
         <v>133</v>
       </c>
@@ -10017,19 +10311,19 @@
       <c r="I37" s="383"/>
       <c r="J37" s="383"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="523">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="525">
         <f>A21-F32</f>
-        <v>15857938</v>
-      </c>
-      <c r="B38" s="524"/>
+        <v>15112511</v>
+      </c>
+      <c r="B38" s="526"/>
       <c r="C38" s="461">
         <f>1-G32</f>
-        <v>0.94392488095238092</v>
+        <v>0.8995542261904762</v>
       </c>
       <c r="D38" s="462">
         <f>(C38/0.8)*100</f>
-        <v>117.99061011904762</v>
+        <v>112.44427827380952</v>
       </c>
       <c r="E38" s="463" t="s">
         <v>135</v>
@@ -10040,7 +10334,7 @@
       <c r="I38" s="463"/>
       <c r="J38" s="463"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -10048,7 +10342,7 @@
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="383"/>
       <c r="B40" s="383"/>
       <c r="C40" s="383"/>
@@ -10063,7 +10357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
       <c r="B41" s="464"/>
       <c r="C41" s="464"/>
@@ -10075,7 +10369,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="465"/>
       <c r="B42" s="465"/>
       <c r="C42" s="465"/>
@@ -10084,10 +10378,10 @@
       <c r="F42" s="465"/>
       <c r="G42" s="465"/>
       <c r="H42" s="465"/>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="466"/>
       <c r="B43" s="467"/>
       <c r="C43" s="467"/>
@@ -10097,7 +10391,7 @@
       <c r="G43" s="413"/>
       <c r="H43" s="467"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="466"/>
       <c r="B44" s="467"/>
       <c r="C44" s="467"/>
@@ -10107,7 +10401,7 @@
       <c r="G44" s="413"/>
       <c r="H44" s="467"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="466"/>
       <c r="B45" s="467"/>
       <c r="C45" s="467"/>
@@ -10117,7 +10411,7 @@
       <c r="G45" s="413"/>
       <c r="H45" s="467"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="466"/>
       <c r="B46" s="467"/>
       <c r="C46" s="467"/>
@@ -10127,7 +10421,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="467"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="466"/>
       <c r="B47" s="467"/>
       <c r="C47" s="467"/>
@@ -10137,7 +10431,7 @@
       <c r="G47" s="413"/>
       <c r="H47" s="467"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="466"/>
       <c r="B48" s="467"/>
       <c r="C48" s="403"/>
@@ -10147,7 +10441,7 @@
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="466"/>
       <c r="B49" s="467"/>
       <c r="C49" s="467"/>
@@ -10157,7 +10451,7 @@
       <c r="G49" s="413"/>
       <c r="H49" s="467"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="466"/>
       <c r="B50" s="467"/>
       <c r="C50" s="467"/>
@@ -10167,7 +10461,7 @@
       <c r="G50" s="413"/>
       <c r="H50" s="467"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="466"/>
       <c r="B51" s="467"/>
       <c r="C51" s="467"/>
@@ -10177,11 +10471,11 @@
       <c r="G51" s="413"/>
       <c r="H51" s="467"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="518"/>
-      <c r="C52" s="518"/>
-      <c r="D52" s="519"/>
+      <c r="B52" s="520"/>
+      <c r="C52" s="520"/>
+      <c r="D52" s="521"/>
       <c r="E52" s="463"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10189,7 +10483,7 @@
       <c r="I52" s="383"/>
       <c r="J52" s="383"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="465"/>
       <c r="B53" s="465"/>
       <c r="C53" s="465"/>
@@ -10198,10 +10492,10 @@
       <c r="F53" s="465"/>
       <c r="G53" s="465"/>
       <c r="H53" s="465"/>
-      <c r="I53" s="515"/>
-      <c r="J53" s="516"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="517"/>
+      <c r="J53" s="518"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="466"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
@@ -10210,10 +10504,10 @@
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
       <c r="H54" s="467"/>
-      <c r="I54" s="517"/>
-      <c r="J54" s="517"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="519"/>
+      <c r="J54" s="519"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="466"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
@@ -10222,10 +10516,10 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="517"/>
-      <c r="J55" s="517"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="519"/>
+      <c r="J55" s="519"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
       <c r="B56" s="383"/>
       <c r="C56" s="383"/>
@@ -10235,13 +10529,13 @@
       <c r="G56" s="383"/>
       <c r="H56" s="383"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="515"/>
-      <c r="C61" s="516"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="515"/>
-      <c r="C68" s="516"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="517"/>
+      <c r="C61" s="518"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="517"/>
+      <c r="C68" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10259,7 +10553,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10267,26 +10561,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="300"/>
+    <col min="1" max="3" width="9.140625" style="300"/>
     <col min="4" max="4" width="8" style="300" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="300"/>
-    <col min="6" max="6" width="10.33203125" style="300" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="300" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="300" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="300" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="300"/>
+    <col min="5" max="5" width="9.140625" style="300"/>
+    <col min="6" max="6" width="10.28515625" style="300" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="300" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="300" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="300" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10295,7 +10589,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
         <v>102</v>
       </c>
@@ -10304,7 +10598,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
         <v>105</v>
       </c>
@@ -10313,8 +10607,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>103</v>
@@ -10322,12 +10616,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -10337,50 +10631,50 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="550" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="552" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="550"/>
-      <c r="C11" s="550"/>
-      <c r="D11" s="550"/>
-      <c r="E11" s="550"/>
-      <c r="F11" s="550"/>
-      <c r="G11" s="550"/>
-      <c r="H11" s="550"/>
-      <c r="I11" s="550"/>
-      <c r="J11" s="550"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="549" t="s">
+      <c r="B11" s="552"/>
+      <c r="C11" s="552"/>
+      <c r="D11" s="552"/>
+      <c r="E11" s="552"/>
+      <c r="F11" s="552"/>
+      <c r="G11" s="552"/>
+      <c r="H11" s="552"/>
+      <c r="I11" s="552"/>
+      <c r="J11" s="552"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="551" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="549"/>
-      <c r="C12" s="549"/>
-      <c r="D12" s="549"/>
-      <c r="E12" s="549"/>
-      <c r="F12" s="549"/>
-      <c r="G12" s="549"/>
-      <c r="H12" s="549"/>
-      <c r="I12" s="549"/>
-      <c r="J12" s="549"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="551" t="str">
+      <c r="B12" s="551"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="551"/>
+      <c r="E12" s="551"/>
+      <c r="F12" s="551"/>
+      <c r="G12" s="551"/>
+      <c r="H12" s="551"/>
+      <c r="I12" s="551"/>
+      <c r="J12" s="551"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="553" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="B13" s="550"/>
-      <c r="C13" s="550"/>
-      <c r="D13" s="550"/>
-      <c r="E13" s="550"/>
-      <c r="F13" s="550"/>
-      <c r="G13" s="550"/>
-      <c r="H13" s="550"/>
-      <c r="I13" s="550"/>
-      <c r="J13" s="550"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="552"/>
+      <c r="C13" s="552"/>
+      <c r="D13" s="552"/>
+      <c r="E13" s="552"/>
+      <c r="F13" s="552"/>
+      <c r="G13" s="552"/>
+      <c r="H13" s="552"/>
+      <c r="I13" s="552"/>
+      <c r="J13" s="552"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -10397,7 +10691,7 @@
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
         <v>96</v>
       </c>
@@ -10411,7 +10705,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10432,7 +10726,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10453,7 +10747,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10471,7 +10765,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -10488,7 +10782,7 @@
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -10502,496 +10796,496 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="547" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="549" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="547" t="s">
+      <c r="B22" s="549" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="547"/>
-      <c r="D22" s="547"/>
-      <c r="E22" s="547" t="s">
+      <c r="C22" s="549"/>
+      <c r="D22" s="549"/>
+      <c r="E22" s="549" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="547"/>
-      <c r="G22" s="548" t="s">
+      <c r="F22" s="549"/>
+      <c r="G22" s="550" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="547" t="s">
+      <c r="H22" s="549" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="547"/>
-      <c r="J22" s="547"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="547"/>
-      <c r="B23" s="547"/>
-      <c r="C23" s="547"/>
-      <c r="D23" s="547"/>
-      <c r="E23" s="547"/>
-      <c r="F23" s="547"/>
-      <c r="G23" s="548"/>
-      <c r="H23" s="547"/>
-      <c r="I23" s="547"/>
-      <c r="J23" s="547"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="525">
+      <c r="I22" s="549"/>
+      <c r="J22" s="549"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="549"/>
+      <c r="B23" s="549"/>
+      <c r="C23" s="549"/>
+      <c r="D23" s="549"/>
+      <c r="E23" s="549"/>
+      <c r="F23" s="549"/>
+      <c r="G23" s="550"/>
+      <c r="H23" s="549"/>
+      <c r="I23" s="549"/>
+      <c r="J23" s="549"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="552" t="s">
+      <c r="B24" s="554" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="553"/>
-      <c r="D24" s="554"/>
-      <c r="E24" s="530" t="str">
+      <c r="C24" s="555"/>
+      <c r="D24" s="556"/>
+      <c r="E24" s="532" t="str">
         <f>Данные!C14</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F24" s="531"/>
-      <c r="G24" s="534">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="536"/>
-      <c r="I24" s="537"/>
-      <c r="J24" s="538"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="526"/>
-      <c r="B25" s="542" t="str">
+      <c r="H24" s="538"/>
+      <c r="I24" s="539"/>
+      <c r="J24" s="540"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="528"/>
+      <c r="B25" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C25" s="543"/>
-      <c r="D25" s="544"/>
-      <c r="E25" s="546"/>
-      <c r="F25" s="533"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="539"/>
-      <c r="I25" s="540"/>
-      <c r="J25" s="541"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="525">
+      <c r="C25" s="545"/>
+      <c r="D25" s="546"/>
+      <c r="E25" s="548"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="542"/>
+      <c r="J25" s="543"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="527" t="s">
+      <c r="B26" s="529" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="528"/>
-      <c r="D26" s="529"/>
-      <c r="E26" s="530" t="str">
+      <c r="C26" s="530"/>
+      <c r="D26" s="531"/>
+      <c r="E26" s="532" t="str">
         <f>Данные!C15</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F26" s="531"/>
-      <c r="G26" s="534">
+      <c r="F26" s="533"/>
+      <c r="G26" s="536">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="526"/>
-      <c r="B27" s="542" t="str">
+      <c r="H26" s="538"/>
+      <c r="I26" s="539"/>
+      <c r="J26" s="540"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="528"/>
+      <c r="B27" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C27" s="543"/>
-      <c r="D27" s="544"/>
-      <c r="E27" s="546"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="535"/>
-      <c r="H27" s="539"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="541"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="525">
+      <c r="C27" s="545"/>
+      <c r="D27" s="546"/>
+      <c r="E27" s="548"/>
+      <c r="F27" s="535"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="543"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="527">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="527" t="s">
+      <c r="B28" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="528"/>
-      <c r="D28" s="529"/>
-      <c r="E28" s="530" t="str">
+      <c r="C28" s="530"/>
+      <c r="D28" s="531"/>
+      <c r="E28" s="532" t="str">
         <f>Данные!C16</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F28" s="531"/>
-      <c r="G28" s="534">
+      <c r="F28" s="533"/>
+      <c r="G28" s="536">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="536"/>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="526"/>
-      <c r="B29" s="542" t="str">
+      <c r="H28" s="538"/>
+      <c r="I28" s="539"/>
+      <c r="J28" s="540"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="528"/>
+      <c r="B29" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C29" s="543"/>
-      <c r="D29" s="544"/>
-      <c r="E29" s="546"/>
-      <c r="F29" s="533"/>
-      <c r="G29" s="535"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="540"/>
-      <c r="J29" s="541"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="525">
+      <c r="C29" s="545"/>
+      <c r="D29" s="546"/>
+      <c r="E29" s="548"/>
+      <c r="F29" s="535"/>
+      <c r="G29" s="537"/>
+      <c r="H29" s="541"/>
+      <c r="I29" s="542"/>
+      <c r="J29" s="543"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="527">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="527" t="s">
+      <c r="B30" s="529" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="528"/>
-      <c r="D30" s="529"/>
-      <c r="E30" s="530" t="str">
+      <c r="C30" s="530"/>
+      <c r="D30" s="531"/>
+      <c r="E30" s="532" t="str">
         <f>Данные!C17</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F30" s="531"/>
-      <c r="G30" s="534">
+      <c r="F30" s="533"/>
+      <c r="G30" s="536">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="536"/>
-      <c r="I30" s="537"/>
-      <c r="J30" s="538"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="526"/>
-      <c r="B31" s="542" t="str">
+      <c r="H30" s="538"/>
+      <c r="I30" s="539"/>
+      <c r="J30" s="540"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="528"/>
+      <c r="B31" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C31" s="543"/>
-      <c r="D31" s="544"/>
-      <c r="E31" s="532"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="539"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="525">
+      <c r="C31" s="545"/>
+      <c r="D31" s="546"/>
+      <c r="E31" s="534"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="537"/>
+      <c r="H31" s="541"/>
+      <c r="I31" s="542"/>
+      <c r="J31" s="543"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="527" t="s">
+      <c r="B32" s="529" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="528"/>
-      <c r="D32" s="529"/>
-      <c r="E32" s="530" t="str">
+      <c r="C32" s="530"/>
+      <c r="D32" s="531"/>
+      <c r="E32" s="532" t="str">
         <f>Данные!C18</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F32" s="531"/>
-      <c r="G32" s="534">
+      <c r="F32" s="533"/>
+      <c r="G32" s="536">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="536"/>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="526"/>
-      <c r="B33" s="542" t="str">
+      <c r="H32" s="538"/>
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="528"/>
+      <c r="B33" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C33" s="543"/>
-      <c r="D33" s="544"/>
-      <c r="E33" s="532"/>
-      <c r="F33" s="533"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="540"/>
-      <c r="J33" s="541"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="525">
+      <c r="C33" s="545"/>
+      <c r="D33" s="546"/>
+      <c r="E33" s="534"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="541"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="543"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="527" t="s">
+      <c r="B34" s="529" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="528"/>
-      <c r="D34" s="529"/>
-      <c r="E34" s="530" t="str">
+      <c r="C34" s="530"/>
+      <c r="D34" s="531"/>
+      <c r="E34" s="532" t="str">
         <f>Данные!C19</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F34" s="531"/>
-      <c r="G34" s="534">
+      <c r="F34" s="533"/>
+      <c r="G34" s="536">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="526"/>
-      <c r="B35" s="542" t="str">
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="528"/>
+      <c r="B35" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C35" s="543"/>
-      <c r="D35" s="544"/>
-      <c r="E35" s="532"/>
-      <c r="F35" s="533"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="539"/>
-      <c r="I35" s="540"/>
-      <c r="J35" s="541"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="525">
+      <c r="C35" s="545"/>
+      <c r="D35" s="546"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="541"/>
+      <c r="I35" s="542"/>
+      <c r="J35" s="543"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="527" t="s">
+      <c r="B36" s="529" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="528"/>
-      <c r="D36" s="529"/>
-      <c r="E36" s="530">
+      <c r="C36" s="530"/>
+      <c r="D36" s="531"/>
+      <c r="E36" s="532">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F36" s="531"/>
-      <c r="G36" s="534">
+      <c r="F36" s="533"/>
+      <c r="G36" s="536">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="545"/>
-      <c r="B37" s="542" t="str">
+      <c r="H36" s="538"/>
+      <c r="I36" s="539"/>
+      <c r="J36" s="540"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="547"/>
+      <c r="B37" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C37" s="543"/>
-      <c r="D37" s="544"/>
-      <c r="E37" s="532"/>
-      <c r="F37" s="533"/>
-      <c r="G37" s="535"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="525">
+      <c r="C37" s="545"/>
+      <c r="D37" s="546"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="535"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="541"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="527" t="s">
+      <c r="B38" s="529" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="528"/>
-      <c r="D38" s="529"/>
-      <c r="E38" s="530">
+      <c r="C38" s="530"/>
+      <c r="D38" s="531"/>
+      <c r="E38" s="532">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="531"/>
-      <c r="G38" s="534">
+      <c r="F38" s="533"/>
+      <c r="G38" s="536">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="545"/>
-      <c r="B39" s="542" t="str">
+      <c r="H38" s="538"/>
+      <c r="I38" s="539"/>
+      <c r="J38" s="540"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="547"/>
+      <c r="B39" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C39" s="543"/>
-      <c r="D39" s="544"/>
-      <c r="E39" s="532"/>
-      <c r="F39" s="533"/>
-      <c r="G39" s="535"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="540"/>
-      <c r="J39" s="541"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="525">
+      <c r="C39" s="545"/>
+      <c r="D39" s="546"/>
+      <c r="E39" s="534"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="541"/>
+      <c r="I39" s="542"/>
+      <c r="J39" s="543"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="527">
         <f>A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="527" t="s">
+      <c r="B40" s="529" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="528"/>
-      <c r="D40" s="529"/>
-      <c r="E40" s="530" t="str">
+      <c r="C40" s="530"/>
+      <c r="D40" s="531"/>
+      <c r="E40" s="532" t="str">
         <f>Данные!C23</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F40" s="531"/>
-      <c r="G40" s="534">
+      <c r="F40" s="533"/>
+      <c r="G40" s="536">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="526"/>
-      <c r="B41" s="542" t="str">
+      <c r="H40" s="538"/>
+      <c r="I40" s="539"/>
+      <c r="J40" s="540"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="528"/>
+      <c r="B41" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C41" s="543"/>
-      <c r="D41" s="544"/>
-      <c r="E41" s="532"/>
-      <c r="F41" s="533"/>
-      <c r="G41" s="535"/>
-      <c r="H41" s="539"/>
-      <c r="I41" s="540"/>
-      <c r="J41" s="541"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="525">
+      <c r="C41" s="545"/>
+      <c r="D41" s="546"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="535"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="541"/>
+      <c r="I41" s="542"/>
+      <c r="J41" s="543"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="527">
         <f t="shared" ref="A42" si="6">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="527" t="s">
+      <c r="B42" s="529" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="528"/>
-      <c r="D42" s="529"/>
-      <c r="E42" s="530">
+      <c r="C42" s="530"/>
+      <c r="D42" s="531"/>
+      <c r="E42" s="532">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="531"/>
-      <c r="G42" s="534">
+      <c r="F42" s="533"/>
+      <c r="G42" s="536">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="526"/>
-      <c r="B43" s="542" t="str">
+      <c r="H42" s="538"/>
+      <c r="I42" s="539"/>
+      <c r="J42" s="540"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="528"/>
+      <c r="B43" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C43" s="543"/>
-      <c r="D43" s="544"/>
-      <c r="E43" s="532"/>
-      <c r="F43" s="533"/>
-      <c r="G43" s="535"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="525">
+      <c r="C43" s="545"/>
+      <c r="D43" s="546"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="537"/>
+      <c r="H43" s="541"/>
+      <c r="I43" s="542"/>
+      <c r="J43" s="543"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="7">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="527" t="s">
+      <c r="B44" s="529" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="528"/>
-      <c r="D44" s="529"/>
-      <c r="E44" s="530">
+      <c r="C44" s="530"/>
+      <c r="D44" s="531"/>
+      <c r="E44" s="532">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="531"/>
-      <c r="G44" s="534">
+      <c r="F44" s="533"/>
+      <c r="G44" s="536">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="536"/>
-      <c r="I44" s="537"/>
-      <c r="J44" s="538"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="526"/>
-      <c r="B45" s="542" t="str">
+      <c r="H44" s="538"/>
+      <c r="I44" s="539"/>
+      <c r="J44" s="540"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="528"/>
+      <c r="B45" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C45" s="543"/>
-      <c r="D45" s="544"/>
-      <c r="E45" s="532"/>
-      <c r="F45" s="533"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="525">
+      <c r="C45" s="545"/>
+      <c r="D45" s="546"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="537"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="542"/>
+      <c r="J45" s="543"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="8">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="527" t="s">
+      <c r="B46" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="528"/>
-      <c r="D46" s="529"/>
-      <c r="E46" s="530">
+      <c r="C46" s="530"/>
+      <c r="D46" s="531"/>
+      <c r="E46" s="532">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="531"/>
-      <c r="G46" s="534">
+      <c r="F46" s="533"/>
+      <c r="G46" s="536">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="536"/>
-      <c r="I46" s="537"/>
-      <c r="J46" s="538"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="526"/>
-      <c r="B47" s="542" t="str">
+      <c r="H46" s="538"/>
+      <c r="I46" s="539"/>
+      <c r="J46" s="540"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="528"/>
+      <c r="B47" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C47" s="543"/>
-      <c r="D47" s="544"/>
-      <c r="E47" s="532"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="535"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="545"/>
+      <c r="D47" s="546"/>
+      <c r="E47" s="534"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="537"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="542"/>
+      <c r="J47" s="543"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -11003,7 +11297,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -11017,7 +11311,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -11029,7 +11323,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -11045,7 +11339,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -11057,7 +11351,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -11071,7 +11365,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -11082,7 +11376,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -11095,14 +11389,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -11206,7 +11500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11216,20 +11510,20 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11250,49 +11544,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11301,11 +11595,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11322,24 +11616,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11348,24 +11642,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11374,29 +11668,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="512">
+      <c r="C7" s="599"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="500">
+      <c r="J7" s="602"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11405,7 +11699,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11426,7 +11720,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11459,7 +11753,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11492,7 +11786,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -11525,7 +11819,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -11558,7 +11852,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -11591,7 +11885,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11624,7 +11918,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -11657,7 +11951,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -11690,7 +11984,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -11723,7 +12017,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -11756,7 +12050,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -11789,7 +12083,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -11822,7 +12116,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -11855,7 +12149,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -11888,14 +12182,14 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="593" t="s">
+      <c r="B23" s="595" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="594"/>
-      <c r="D23" s="594"/>
-      <c r="E23" s="595"/>
+      <c r="C23" s="596"/>
+      <c r="D23" s="596"/>
+      <c r="E23" s="597"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -11915,14 +12209,14 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="583" t="s">
+      <c r="B24" s="585" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="584"/>
-      <c r="D24" s="584"/>
-      <c r="E24" s="585"/>
+      <c r="C24" s="586"/>
+      <c r="D24" s="586"/>
+      <c r="E24" s="587"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -11942,7 +12236,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -11963,27 +12257,27 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="558" t="s">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K27" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="558"/>
-      <c r="M27" s="558"/>
+      <c r="L27" s="560"/>
+      <c r="M27" s="560"/>
       <c r="N27" s="473"/>
       <c r="O27" s="473"/>
       <c r="P27" s="489"/>
       <c r="Q27" s="489"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="555" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N28" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="555"/>
-      <c r="P28" s="556" t="s">
+      <c r="O28" s="557"/>
+      <c r="P28" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="Q28" s="557"/>
+      <c r="Q28" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12029,7 +12323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12039,20 +12333,20 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12073,52 +12367,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607">
+      <c r="B2" s="609">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12127,11 +12421,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12148,24 +12442,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12174,24 +12468,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12200,29 +12494,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12231,7 +12525,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12252,7 +12546,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12285,7 +12579,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12318,7 +12612,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -12351,7 +12645,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -12384,7 +12678,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -12417,14 +12711,14 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="631" t="s">
+      <c r="B14" s="633" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="632"/>
-      <c r="D14" s="632"/>
-      <c r="E14" s="632"/>
+      <c r="C14" s="634"/>
+      <c r="D14" s="634"/>
+      <c r="E14" s="634"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12444,15 +12738,15 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="593" t="s">
+      <c r="B15" s="595" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="594"/>
-      <c r="D15" s="594"/>
-      <c r="E15" s="594"/>
-      <c r="F15" s="630"/>
+      <c r="C15" s="596"/>
+      <c r="D15" s="596"/>
+      <c r="E15" s="596"/>
+      <c r="F15" s="632"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12469,14 +12763,14 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="585" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12496,7 +12790,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -12517,31 +12811,31 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="558" t="s">
+      <c r="L19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="558"/>
-      <c r="N19" s="558"/>
+      <c r="M19" s="560"/>
+      <c r="N19" s="560"/>
       <c r="O19" s="473"/>
       <c r="P19" s="473"/>
       <c r="Q19" s="489"/>
       <c r="R19" s="489"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="555" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12596,7 +12890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12606,20 +12900,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12640,49 +12934,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="573"/>
+      <c r="Q2" s="573"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12691,11 +12985,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12712,24 +13006,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12738,24 +13032,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12764,29 +13058,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="512">
+      <c r="C7" s="599"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="500">
+      <c r="J7" s="602"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12795,7 +13089,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12816,7 +13110,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12852,7 +13146,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12888,7 +13182,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -12924,7 +13218,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -12960,7 +13254,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -12996,7 +13290,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -13032,7 +13326,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -13068,7 +13362,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -13104,7 +13398,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -13140,7 +13434,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -13176,7 +13470,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -13212,7 +13506,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -13245,7 +13539,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -13266,27 +13560,27 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="L23" s="633" t="s">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L23" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="633"/>
-      <c r="N23" s="633"/>
+      <c r="M23" s="635"/>
+      <c r="N23" s="635"/>
       <c r="O23" s="473"/>
       <c r="P23" s="473"/>
       <c r="Q23" s="489"/>
       <c r="R23" s="489"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="555" t="s">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O24" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="555"/>
-      <c r="Q24" s="556" t="s">
+      <c r="P24" s="557"/>
+      <c r="Q24" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="557"/>
+      <c r="R24" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13332,7 +13626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13342,20 +13636,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13376,49 +13670,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="561"/>
+      <c r="C2" s="562"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="570" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="571"/>
+      <c r="G2" s="571"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="564"/>
+      <c r="C3" s="565"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="574" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13427,11 +13721,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="567"/>
+      <c r="C4" s="568"/>
+      <c r="D4" s="569"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13448,24 +13742,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="588"/>
-      <c r="J5" s="589"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13474,24 +13768,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="590"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="592"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="588"/>
-      <c r="J6" s="589"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13500,29 +13794,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="597"/>
-      <c r="D7" s="512">
+      <c r="C7" s="599"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="596" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="598" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="600"/>
-      <c r="K7" s="500">
+      <c r="J7" s="602"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13531,7 +13825,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13552,7 +13846,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13585,7 +13879,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13618,7 +13912,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13651,7 +13945,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13684,7 +13978,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13717,7 +14011,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13750,7 +14044,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13783,7 +14077,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13804,27 +14098,27 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="633" t="s">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="633"/>
-      <c r="N18" s="633"/>
+      <c r="M18" s="635"/>
+      <c r="N18" s="635"/>
       <c r="O18" s="473"/>
       <c r="P18" s="473"/>
       <c r="Q18" s="489"/>
       <c r="R18" s="489"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="555" t="s">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="O19" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
+      <c r="P19" s="557"/>
+      <c r="Q19" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13871,7 +14165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13884,20 +14178,20 @@
       <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13918,62 +14212,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="627"/>
-      <c r="M2" s="635"/>
-      <c r="N2" s="636"/>
-      <c r="O2" s="636"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
-      <c r="R2" s="637"/>
+      <c r="L2" s="629"/>
+      <c r="M2" s="637"/>
+      <c r="N2" s="638"/>
+      <c r="O2" s="638"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
+      <c r="R2" s="639"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
-      <c r="M3" s="638"/>
-      <c r="N3" s="639"/>
-      <c r="O3" s="639"/>
-      <c r="P3" s="639"/>
-      <c r="Q3" s="639"/>
-      <c r="R3" s="640"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
+      <c r="M3" s="640"/>
+      <c r="N3" s="641"/>
+      <c r="O3" s="641"/>
+      <c r="P3" s="641"/>
+      <c r="Q3" s="641"/>
+      <c r="R3" s="642"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13982,98 +14276,98 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="638"/>
-      <c r="N4" s="639"/>
-      <c r="O4" s="639"/>
-      <c r="P4" s="639"/>
-      <c r="Q4" s="639"/>
-      <c r="R4" s="640"/>
+      <c r="M4" s="640"/>
+      <c r="N4" s="641"/>
+      <c r="O4" s="641"/>
+      <c r="P4" s="641"/>
+      <c r="Q4" s="641"/>
+      <c r="R4" s="642"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
-      <c r="M5" s="638"/>
-      <c r="N5" s="639"/>
-      <c r="O5" s="639"/>
-      <c r="P5" s="639"/>
-      <c r="Q5" s="639"/>
-      <c r="R5" s="640"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
+      <c r="M5" s="640"/>
+      <c r="N5" s="641"/>
+      <c r="O5" s="641"/>
+      <c r="P5" s="641"/>
+      <c r="Q5" s="641"/>
+      <c r="R5" s="642"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
-      <c r="M6" s="638"/>
-      <c r="N6" s="639"/>
-      <c r="O6" s="639"/>
-      <c r="P6" s="639"/>
-      <c r="Q6" s="639"/>
-      <c r="R6" s="640"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
+      <c r="M6" s="640"/>
+      <c r="N6" s="641"/>
+      <c r="O6" s="641"/>
+      <c r="P6" s="641"/>
+      <c r="Q6" s="641"/>
+      <c r="R6" s="642"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
-      <c r="M7" s="638"/>
-      <c r="N7" s="639"/>
-      <c r="O7" s="639"/>
-      <c r="P7" s="639"/>
-      <c r="Q7" s="639"/>
-      <c r="R7" s="640"/>
+      <c r="L7" s="503"/>
+      <c r="M7" s="640"/>
+      <c r="N7" s="641"/>
+      <c r="O7" s="641"/>
+      <c r="P7" s="641"/>
+      <c r="Q7" s="641"/>
+      <c r="R7" s="642"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14094,7 +14388,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14127,7 +14421,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -14160,7 +14454,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -14193,7 +14487,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -14226,7 +14520,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="484" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="484" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="474"/>
       <c r="B13" s="475" t="s">
         <v>3</v>
@@ -14259,7 +14553,7 @@
       <c r="R13" s="482"/>
       <c r="S13" s="483"/>
     </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -14292,7 +14586,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -14325,7 +14619,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -14358,7 +14652,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -14391,7 +14685,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -14424,7 +14718,7 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>41</v>
@@ -14455,7 +14749,7 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="96" t="s">
         <v>35</v>
@@ -14486,14 +14780,14 @@
       <c r="R20" s="322"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="583" t="s">
+      <c r="B21" s="585" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="584"/>
-      <c r="D21" s="584"/>
-      <c r="E21" s="585"/>
+      <c r="C21" s="586"/>
+      <c r="D21" s="586"/>
+      <c r="E21" s="587"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14513,7 +14807,7 @@
       <c r="R21" s="326"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="108"/>
       <c r="B22" s="109"/>
       <c r="C22" s="109"/>
@@ -14534,29 +14828,29 @@
       <c r="R22" s="111"/>
       <c r="S22" s="112"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="121"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L24" s="633" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L24" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="633"/>
-      <c r="N24" s="633"/>
+      <c r="M24" s="635"/>
+      <c r="N24" s="635"/>
       <c r="O24" s="473"/>
       <c r="P24" s="473"/>
       <c r="Q24" s="489"/>
       <c r="R24" s="489"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O25" s="555" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O25" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="555"/>
-      <c r="Q25" s="556" t="s">
+      <c r="P25" s="557"/>
+      <c r="Q25" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="557"/>
+      <c r="R25" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14594,14 +14888,14 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14611,19 +14905,19 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14644,49 +14938,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="609"/>
+      <c r="C2" s="610"/>
+      <c r="D2" s="611"/>
+      <c r="E2" s="618" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="619"/>
+      <c r="G2" s="619"/>
+      <c r="H2" s="620"/>
+      <c r="I2" s="624" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="625"/>
+      <c r="K2" s="628">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="612"/>
+      <c r="C3" s="613"/>
+      <c r="D3" s="614"/>
+      <c r="E3" s="621" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="622"/>
+      <c r="G3" s="622"/>
+      <c r="H3" s="623"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="627"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14695,11 +14989,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="615"/>
+      <c r="C4" s="616"/>
+      <c r="D4" s="617"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14716,24 +15010,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="588" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="603"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="602"/>
-      <c r="J5" s="603"/>
-      <c r="K5" s="604"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="604"/>
+      <c r="J5" s="605"/>
+      <c r="K5" s="606"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14742,24 +15036,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="588" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="603"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="591"/>
-      <c r="F6" s="591"/>
-      <c r="G6" s="591"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="602"/>
-      <c r="J6" s="603"/>
-      <c r="K6" s="604"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="593"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="593"/>
+      <c r="H6" s="594"/>
+      <c r="I6" s="604"/>
+      <c r="J6" s="605"/>
+      <c r="K6" s="606"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14768,29 +15062,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="596" t="s">
+      <c r="B7" s="598" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="605"/>
-      <c r="D7" s="512">
+      <c r="C7" s="607"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="598"/>
-      <c r="F7" s="598"/>
-      <c r="G7" s="598"/>
-      <c r="H7" s="599"/>
-      <c r="I7" s="606" t="s">
+      <c r="E7" s="600"/>
+      <c r="F7" s="600"/>
+      <c r="G7" s="600"/>
+      <c r="H7" s="601"/>
+      <c r="I7" s="608" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="500">
+      <c r="J7" s="607"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14799,7 +15093,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14820,7 +15114,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14853,7 +15147,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -14886,7 +15180,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -14919,7 +15213,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="474"/>
       <c r="B12" s="485" t="s">
         <v>3</v>
@@ -14952,7 +15246,7 @@
       <c r="R12" s="488"/>
       <c r="S12" s="483"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -14985,7 +15279,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -15018,7 +15312,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -15051,14 +15345,14 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="585" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="586"/>
+      <c r="E16" s="587"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15078,7 +15372,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -15099,29 +15393,29 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L19" s="633" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="635" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="633"/>
-      <c r="N19" s="633"/>
+      <c r="M19" s="635"/>
+      <c r="N19" s="635"/>
       <c r="O19" s="473"/>
       <c r="P19" s="473"/>
       <c r="Q19" s="489"/>
       <c r="R19" s="489"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="555" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O20" s="557" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
+      <c r="P20" s="557"/>
+      <c r="Q20" s="558" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-28-2-450-19 Калина 0.45/XXI-B-28-2-450-19 Калина 0.45 от 09.01.2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-B-28-2-450-19 Калина 0.45\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B604E-987C-4D1F-959F-5FF502B91346}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6899632-0CE4-4191-B55C-70D8191B2047}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="654">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3479,16 +3479,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3498,22 +3494,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3618,9 +3610,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3629,6 +3618,9 @@
     </xf>
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4081,6 +4073,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6739,25 +6752,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="496" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="497" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6768,45 +6781,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="509" t="s">
+      <c r="A4" s="501" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="511" t="s">
+      <c r="A5" s="503" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="496" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="516"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="507"/>
+      <c r="C8" s="507"/>
+      <c r="D8" s="507"/>
+      <c r="E8" s="508"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="504" t="s">
+      <c r="A10" s="496" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="504"/>
+      <c r="B10" s="496"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>94</v>
@@ -6817,33 +6830,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="502"/>
-      <c r="B11" s="503"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="495"/>
       <c r="D11" s="369">
         <v>43839</v>
       </c>
-      <c r="F11" s="499" t="s">
+      <c r="F11" s="491" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="499"/>
-      <c r="H11" s="499"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="500" t="s">
+      <c r="G11" s="491"/>
+      <c r="H11" s="491"/>
+      <c r="I11" s="491"/>
+      <c r="J11" s="492" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="500"/>
+      <c r="K11" s="492"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="499" t="s">
+      <c r="F12" s="491" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="499"/>
-      <c r="H12" s="499"/>
-      <c r="I12" s="499"/>
-      <c r="J12" s="500" t="s">
+      <c r="G12" s="491"/>
+      <c r="H12" s="491"/>
+      <c r="I12" s="491"/>
+      <c r="J12" s="492" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="500"/>
+      <c r="K12" s="492"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6858,19 +6871,19 @@
       <c r="D13" s="374" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="472" t="s">
+      <c r="E13" s="466" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="499" t="s">
+      <c r="F13" s="491" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="499"/>
-      <c r="H13" s="499"/>
-      <c r="I13" s="499"/>
-      <c r="J13" s="500" t="s">
+      <c r="G13" s="491"/>
+      <c r="H13" s="491"/>
+      <c r="I13" s="491"/>
+      <c r="J13" s="492" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="500"/>
+      <c r="K13" s="492"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7103,11 +7116,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="501" t="s">
+      <c r="A29" s="493" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="501"/>
-      <c r="C29" s="501"/>
+      <c r="B29" s="493"/>
+      <c r="C29" s="493"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -7184,47 +7197,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7235,9 +7248,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7256,22 +7269,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7282,22 +7295,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7308,27 +7321,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7707,25 +7720,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="635" t="s">
+      <c r="L21" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="635"/>
-      <c r="N21" s="635"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="627"/>
+      <c r="N21" s="627"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="557" t="s">
+      <c r="O22" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="557"/>
-      <c r="Q22" s="558" t="s">
+      <c r="P22" s="549"/>
+      <c r="Q22" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="559"/>
+      <c r="R22" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7815,47 +7828,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7866,9 +7879,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7887,22 +7900,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7913,22 +7926,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7939,27 +7952,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8288,12 +8301,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="646" t="s">
+      <c r="B18" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="647"/>
-      <c r="D18" s="647"/>
-      <c r="E18" s="648"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8336,25 +8349,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="635" t="s">
+      <c r="L21" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M21" s="635"/>
-      <c r="N21" s="635"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="627"/>
+      <c r="N21" s="627"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="557" t="s">
+      <c r="O22" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="557"/>
-      <c r="Q22" s="558" t="s">
+      <c r="P22" s="549"/>
+      <c r="Q22" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R22" s="559"/>
+      <c r="R22" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8454,47 +8467,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8505,9 +8518,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8526,22 +8539,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8552,22 +8565,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8578,27 +8591,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8909,25 +8922,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="635" t="s">
+      <c r="L19" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="635"/>
-      <c r="N19" s="635"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="627"/>
+      <c r="N19" s="627"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="557" t="s">
+      <c r="O20" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="557"/>
-      <c r="Q20" s="558" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="559"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9008,47 +9021,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="651">
+      <c r="J2" s="617"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="L2" s="652"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="653"/>
-      <c r="L3" s="654"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9059,9 +9072,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9080,22 +9093,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9106,22 +9119,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9132,27 +9145,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9424,25 +9437,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="635" t="s">
+      <c r="L18" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="635"/>
-      <c r="N18" s="635"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="627"/>
+      <c r="N18" s="627"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="557" t="s">
+      <c r="O19" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="557"/>
-      <c r="Q19" s="558" t="s">
+      <c r="P19" s="549"/>
+      <c r="Q19" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="559"/>
+      <c r="R19" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9496,7 +9509,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9517,11 +9530,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="471" t="s">
+      <c r="B1" s="465" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="470" t="str">
+      <c r="D1" s="464" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
@@ -9551,17 +9564,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="522" t="s">
+      <c r="A3" s="514" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
+      <c r="B3" s="514"/>
+      <c r="C3" s="514"/>
+      <c r="D3" s="514"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="514"/>
+      <c r="G3" s="514"/>
+      <c r="H3" s="514"/>
+      <c r="I3" s="514"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9870,7 +9883,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="469" t="s">
+      <c r="E14" s="463" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="379"/>
@@ -10069,7 +10082,7 @@
         <f>1-G21</f>
         <v>0.94392488095238092</v>
       </c>
-      <c r="J21" s="490">
+      <c r="J21" s="484">
         <v>305</v>
       </c>
       <c r="K21" s="403"/>
@@ -10104,7 +10117,7 @@
         <f>I21-G22</f>
         <v>0.8995542261904762</v>
       </c>
-      <c r="J22" s="491">
+      <c r="J22" s="485">
         <v>306</v>
       </c>
       <c r="K22" s="383"/>
@@ -10112,29 +10125,71 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="492"/>
+      <c r="B23" s="436">
+        <v>44061</v>
+      </c>
+      <c r="C23" s="436">
+        <v>44064</v>
+      </c>
+      <c r="D23" s="436">
+        <v>44070</v>
+      </c>
+      <c r="E23" s="437">
+        <v>720594</v>
+      </c>
+      <c r="F23" s="437">
+        <v>761173</v>
+      </c>
+      <c r="G23" s="426">
+        <f>F23/A$21</f>
+        <v>4.530791666666667E-2</v>
+      </c>
+      <c r="H23" s="433">
+        <f>H22-F23</f>
+        <v>14351338</v>
+      </c>
+      <c r="I23" s="434">
+        <f>I22-G23</f>
+        <v>0.85424630952380953</v>
+      </c>
+      <c r="J23" s="486">
+        <v>310</v>
+      </c>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="435"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="493"/>
+      <c r="B24" s="436">
+        <v>44268</v>
+      </c>
+      <c r="C24" s="436">
+        <v>44270</v>
+      </c>
+      <c r="D24" s="436">
+        <v>44287</v>
+      </c>
+      <c r="E24" s="653">
+        <v>543438</v>
+      </c>
+      <c r="F24" s="653">
+        <v>572897</v>
+      </c>
+      <c r="G24" s="426">
+        <f t="shared" ref="G24:G25" si="2">F24/A$21</f>
+        <v>3.4101011904761905E-2</v>
+      </c>
+      <c r="H24" s="433">
+        <f t="shared" ref="H24:H25" si="3">H23-F24</f>
+        <v>13778441</v>
+      </c>
+      <c r="I24" s="434">
+        <f t="shared" ref="I24:I25" si="4">I23-G24</f>
+        <v>0.82014529761904764</v>
+      </c>
+      <c r="J24" s="486">
+        <v>308</v>
+      </c>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -10143,13 +10198,13 @@
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
       <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="492"/>
-      <c r="K25" s="443"/>
+      <c r="E25" s="438"/>
+      <c r="F25" s="438"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="433"/>
+      <c r="I25" s="434"/>
+      <c r="J25" s="486"/>
+      <c r="K25" s="441"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -10157,12 +10212,12 @@
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
       <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="492"/>
+      <c r="E26" s="438"/>
+      <c r="F26" s="438"/>
+      <c r="G26" s="440"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="439"/>
+      <c r="J26" s="486"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -10171,12 +10226,12 @@
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
       <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="492"/>
+      <c r="E27" s="438"/>
+      <c r="F27" s="438"/>
+      <c r="G27" s="440"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="439"/>
+      <c r="J27" s="486"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -10185,12 +10240,12 @@
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
       <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="492"/>
+      <c r="E28" s="438"/>
+      <c r="F28" s="438"/>
+      <c r="G28" s="440"/>
+      <c r="H28" s="438"/>
+      <c r="I28" s="439"/>
+      <c r="J28" s="486"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -10198,13 +10253,13 @@
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="494"/>
+      <c r="D29" s="490"/>
+      <c r="E29" s="490"/>
+      <c r="F29" s="438"/>
+      <c r="G29" s="442"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="647"/>
+      <c r="J29" s="648"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -10212,60 +10267,60 @@
       <c r="A30" s="435"/>
       <c r="B30" s="436"/>
       <c r="C30" s="436"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="494"/>
+      <c r="D30" s="490"/>
+      <c r="E30" s="490"/>
+      <c r="F30" s="438"/>
+      <c r="G30" s="440"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="647"/>
+      <c r="J30" s="648"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="495"/>
+      <c r="A31" s="443"/>
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="649"/>
+      <c r="E31" s="649"/>
+      <c r="F31" s="650"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="446"/>
+      <c r="I31" s="651"/>
+      <c r="J31" s="652"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="447" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="497">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="449"/>
+      <c r="E32" s="488">
         <f>SUM(E21:E31)</f>
-        <v>1589616</v>
-      </c>
-      <c r="F32" s="498">
+        <v>2853648</v>
+      </c>
+      <c r="F32" s="489">
         <f>SUM(F21:F31)</f>
-        <v>1687489</v>
-      </c>
-      <c r="G32" s="456">
+        <v>3021559</v>
+      </c>
+      <c r="G32" s="450">
         <f>SUM(G21:G31)</f>
-        <v>0.10044577380952381</v>
-      </c>
-      <c r="H32" s="457">
+        <v>0.17985470238095236</v>
+      </c>
+      <c r="H32" s="451">
         <f>A21-F32</f>
-        <v>15112511</v>
-      </c>
-      <c r="I32" s="458">
+        <v>13778441</v>
+      </c>
+      <c r="I32" s="452">
         <f>1-G32</f>
-        <v>0.8995542261904762</v>
-      </c>
-      <c r="J32" s="496"/>
-      <c r="K32" s="459"/>
-      <c r="L32" s="459"/>
+        <v>0.82014529761904764</v>
+      </c>
+      <c r="J32" s="487"/>
+      <c r="K32" s="453"/>
+      <c r="L32" s="453"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10280,12 +10335,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523" t="s">
+      <c r="A36" s="515" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="523"/>
-      <c r="C36" s="523"/>
-      <c r="D36" s="523"/>
+      <c r="B36" s="515"/>
+      <c r="C36" s="515"/>
+      <c r="D36" s="515"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10294,14 +10349,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="524" t="s">
+      <c r="A37" s="516" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="524"/>
-      <c r="C37" s="460" t="s">
+      <c r="B37" s="516"/>
+      <c r="C37" s="454" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="460" t="s">
+      <c r="D37" s="454" t="s">
         <v>134</v>
       </c>
       <c r="E37" s="383"/>
@@ -10312,27 +10367,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="525">
+      <c r="A38" s="517">
         <f>A21-F32</f>
-        <v>15112511</v>
-      </c>
-      <c r="B38" s="526"/>
-      <c r="C38" s="461">
+        <v>13778441</v>
+      </c>
+      <c r="B38" s="518"/>
+      <c r="C38" s="455">
         <f>1-G32</f>
-        <v>0.8995542261904762</v>
-      </c>
-      <c r="D38" s="462">
+        <v>0.82014529761904764</v>
+      </c>
+      <c r="D38" s="456">
         <f>(C38/0.8)*100</f>
-        <v>112.44427827380952</v>
-      </c>
-      <c r="E38" s="463" t="s">
+        <v>102.51816220238095</v>
+      </c>
+      <c r="E38" s="457" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="463"/>
-      <c r="G38" s="463"/>
-      <c r="H38" s="463"/>
-      <c r="I38" s="463"/>
-      <c r="J38" s="463"/>
+      <c r="F38" s="457"/>
+      <c r="G38" s="457"/>
+      <c r="H38" s="457"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10359,8 +10414,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
+      <c r="B41" s="458"/>
+      <c r="C41" s="458"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10370,113 +10425,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
-      <c r="B42" s="465"/>
-      <c r="C42" s="465"/>
-      <c r="D42" s="465"/>
-      <c r="E42" s="465"/>
-      <c r="F42" s="465"/>
-      <c r="G42" s="465"/>
-      <c r="H42" s="465"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="459"/>
+      <c r="B42" s="459"/>
+      <c r="C42" s="459"/>
+      <c r="D42" s="459"/>
+      <c r="E42" s="459"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="459"/>
+      <c r="H42" s="459"/>
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="466"/>
-      <c r="B43" s="467"/>
-      <c r="C43" s="467"/>
+      <c r="A43" s="460"/>
+      <c r="B43" s="461"/>
+      <c r="C43" s="461"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="467"/>
+      <c r="F43" s="461"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="467"/>
+      <c r="H43" s="461"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="466"/>
-      <c r="B44" s="467"/>
-      <c r="C44" s="467"/>
-      <c r="D44" s="467"/>
-      <c r="E44" s="467"/>
-      <c r="F44" s="467"/>
+      <c r="A44" s="460"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="461"/>
+      <c r="E44" s="461"/>
+      <c r="F44" s="461"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="467"/>
+      <c r="H44" s="461"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="466"/>
-      <c r="B45" s="467"/>
-      <c r="C45" s="467"/>
+      <c r="A45" s="460"/>
+      <c r="B45" s="461"/>
+      <c r="C45" s="461"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="467"/>
+      <c r="F45" s="461"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="467"/>
+      <c r="H45" s="461"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="466"/>
-      <c r="B46" s="467"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="467"/>
-      <c r="E46" s="467"/>
-      <c r="F46" s="467"/>
+      <c r="A46" s="460"/>
+      <c r="B46" s="461"/>
+      <c r="C46" s="461"/>
+      <c r="D46" s="461"/>
+      <c r="E46" s="461"/>
+      <c r="F46" s="461"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="467"/>
+      <c r="H46" s="461"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="466"/>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
+      <c r="A47" s="460"/>
+      <c r="B47" s="461"/>
+      <c r="C47" s="461"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="467"/>
+      <c r="F47" s="461"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="467"/>
+      <c r="H47" s="461"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="466"/>
-      <c r="B48" s="467"/>
+      <c r="A48" s="460"/>
+      <c r="B48" s="461"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
+      <c r="D48" s="462"/>
+      <c r="E48" s="462"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="466"/>
-      <c r="B49" s="467"/>
-      <c r="C49" s="467"/>
-      <c r="D49" s="467"/>
-      <c r="E49" s="467"/>
-      <c r="F49" s="467"/>
+      <c r="A49" s="460"/>
+      <c r="B49" s="461"/>
+      <c r="C49" s="461"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="467"/>
+      <c r="H49" s="461"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="466"/>
-      <c r="B50" s="467"/>
-      <c r="C50" s="467"/>
-      <c r="D50" s="467"/>
-      <c r="E50" s="467"/>
-      <c r="F50" s="467"/>
+      <c r="A50" s="460"/>
+      <c r="B50" s="461"/>
+      <c r="C50" s="461"/>
+      <c r="D50" s="461"/>
+      <c r="E50" s="461"/>
+      <c r="F50" s="461"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="467"/>
+      <c r="H50" s="461"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="466"/>
-      <c r="B51" s="467"/>
-      <c r="C51" s="467"/>
+      <c r="A51" s="460"/>
+      <c r="B51" s="461"/>
+      <c r="C51" s="461"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="467"/>
+      <c r="F51" s="461"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="467"/>
+      <c r="H51" s="461"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="520"/>
-      <c r="C52" s="520"/>
-      <c r="D52" s="521"/>
-      <c r="E52" s="463"/>
+      <c r="B52" s="512"/>
+      <c r="C52" s="512"/>
+      <c r="D52" s="513"/>
+      <c r="E52" s="457"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10484,31 +10539,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="465"/>
-      <c r="B53" s="465"/>
-      <c r="C53" s="465"/>
-      <c r="D53" s="465"/>
-      <c r="E53" s="465"/>
-      <c r="F53" s="465"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="465"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="459"/>
+      <c r="B53" s="459"/>
+      <c r="C53" s="459"/>
+      <c r="D53" s="459"/>
+      <c r="E53" s="459"/>
+      <c r="F53" s="459"/>
+      <c r="G53" s="459"/>
+      <c r="H53" s="459"/>
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="466"/>
+      <c r="A54" s="460"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="467"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="H54" s="461"/>
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="466"/>
+      <c r="A55" s="460"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10516,8 +10571,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10530,12 +10585,12 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10632,47 +10687,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="552" t="s">
+      <c r="A11" s="544" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="552"/>
-      <c r="C11" s="552"/>
-      <c r="D11" s="552"/>
-      <c r="E11" s="552"/>
-      <c r="F11" s="552"/>
-      <c r="G11" s="552"/>
-      <c r="H11" s="552"/>
-      <c r="I11" s="552"/>
-      <c r="J11" s="552"/>
+      <c r="B11" s="544"/>
+      <c r="C11" s="544"/>
+      <c r="D11" s="544"/>
+      <c r="E11" s="544"/>
+      <c r="F11" s="544"/>
+      <c r="G11" s="544"/>
+      <c r="H11" s="544"/>
+      <c r="I11" s="544"/>
+      <c r="J11" s="544"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="551" t="s">
+      <c r="A12" s="543" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="551"/>
-      <c r="C12" s="551"/>
-      <c r="D12" s="551"/>
-      <c r="E12" s="551"/>
-      <c r="F12" s="551"/>
-      <c r="G12" s="551"/>
-      <c r="H12" s="551"/>
-      <c r="I12" s="551"/>
-      <c r="J12" s="551"/>
+      <c r="B12" s="543"/>
+      <c r="C12" s="543"/>
+      <c r="D12" s="543"/>
+      <c r="E12" s="543"/>
+      <c r="F12" s="543"/>
+      <c r="G12" s="543"/>
+      <c r="H12" s="543"/>
+      <c r="I12" s="543"/>
+      <c r="J12" s="543"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="553" t="str">
+      <c r="A13" s="545" t="str">
         <f>Данные!A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="B13" s="552"/>
-      <c r="C13" s="552"/>
-      <c r="D13" s="552"/>
-      <c r="E13" s="552"/>
-      <c r="F13" s="552"/>
-      <c r="G13" s="552"/>
-      <c r="H13" s="552"/>
-      <c r="I13" s="552"/>
-      <c r="J13" s="552"/>
+      <c r="B13" s="544"/>
+      <c r="C13" s="544"/>
+      <c r="D13" s="544"/>
+      <c r="E13" s="544"/>
+      <c r="F13" s="544"/>
+      <c r="G13" s="544"/>
+      <c r="H13" s="544"/>
+      <c r="I13" s="544"/>
+      <c r="J13" s="544"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10797,493 +10852,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="549" t="s">
+      <c r="A22" s="541" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="549" t="s">
+      <c r="B22" s="541" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="549"/>
-      <c r="D22" s="549"/>
-      <c r="E22" s="549" t="s">
+      <c r="C22" s="541"/>
+      <c r="D22" s="541"/>
+      <c r="E22" s="541" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="549"/>
-      <c r="G22" s="550" t="s">
+      <c r="F22" s="541"/>
+      <c r="G22" s="542" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="549" t="s">
+      <c r="H22" s="541" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="549"/>
-      <c r="J22" s="549"/>
+      <c r="I22" s="541"/>
+      <c r="J22" s="541"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="549"/>
-      <c r="B23" s="549"/>
-      <c r="C23" s="549"/>
-      <c r="D23" s="549"/>
-      <c r="E23" s="549"/>
-      <c r="F23" s="549"/>
-      <c r="G23" s="550"/>
-      <c r="H23" s="549"/>
-      <c r="I23" s="549"/>
-      <c r="J23" s="549"/>
+      <c r="A23" s="541"/>
+      <c r="B23" s="541"/>
+      <c r="C23" s="541"/>
+      <c r="D23" s="541"/>
+      <c r="E23" s="541"/>
+      <c r="F23" s="541"/>
+      <c r="G23" s="542"/>
+      <c r="H23" s="541"/>
+      <c r="I23" s="541"/>
+      <c r="J23" s="541"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="554" t="s">
+      <c r="B24" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="555"/>
-      <c r="D24" s="556"/>
-      <c r="E24" s="532" t="str">
+      <c r="C24" s="547"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="524" t="str">
         <f>Данные!C14</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F24" s="533"/>
-      <c r="G24" s="536">
+      <c r="F24" s="525"/>
+      <c r="G24" s="528">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="538"/>
-      <c r="I24" s="539"/>
-      <c r="J24" s="540"/>
+      <c r="H24" s="530"/>
+      <c r="I24" s="531"/>
+      <c r="J24" s="532"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="544" t="str">
+      <c r="A25" s="520"/>
+      <c r="B25" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C25" s="545"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="548"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="537"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="542"/>
-      <c r="J25" s="543"/>
+      <c r="C25" s="537"/>
+      <c r="D25" s="538"/>
+      <c r="E25" s="540"/>
+      <c r="F25" s="527"/>
+      <c r="G25" s="529"/>
+      <c r="H25" s="533"/>
+      <c r="I25" s="534"/>
+      <c r="J25" s="535"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="519">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="529" t="s">
+      <c r="B26" s="521" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="530"/>
-      <c r="D26" s="531"/>
-      <c r="E26" s="532" t="str">
+      <c r="C26" s="522"/>
+      <c r="D26" s="523"/>
+      <c r="E26" s="524" t="str">
         <f>Данные!C15</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F26" s="533"/>
-      <c r="G26" s="536">
+      <c r="F26" s="525"/>
+      <c r="G26" s="528">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="538"/>
-      <c r="I26" s="539"/>
-      <c r="J26" s="540"/>
+      <c r="H26" s="530"/>
+      <c r="I26" s="531"/>
+      <c r="J26" s="532"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="544" t="str">
+      <c r="A27" s="520"/>
+      <c r="B27" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
-      <c r="E27" s="548"/>
-      <c r="F27" s="535"/>
-      <c r="G27" s="537"/>
-      <c r="H27" s="541"/>
-      <c r="I27" s="542"/>
-      <c r="J27" s="543"/>
+      <c r="C27" s="537"/>
+      <c r="D27" s="538"/>
+      <c r="E27" s="540"/>
+      <c r="F27" s="527"/>
+      <c r="G27" s="529"/>
+      <c r="H27" s="533"/>
+      <c r="I27" s="534"/>
+      <c r="J27" s="535"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="519">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="529" t="s">
+      <c r="B28" s="521" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="530"/>
-      <c r="D28" s="531"/>
-      <c r="E28" s="532" t="str">
+      <c r="C28" s="522"/>
+      <c r="D28" s="523"/>
+      <c r="E28" s="524" t="str">
         <f>Данные!C16</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F28" s="533"/>
-      <c r="G28" s="536">
+      <c r="F28" s="525"/>
+      <c r="G28" s="528">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="538"/>
-      <c r="I28" s="539"/>
-      <c r="J28" s="540"/>
+      <c r="H28" s="530"/>
+      <c r="I28" s="531"/>
+      <c r="J28" s="532"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="544" t="str">
+      <c r="A29" s="520"/>
+      <c r="B29" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C29" s="545"/>
-      <c r="D29" s="546"/>
-      <c r="E29" s="548"/>
-      <c r="F29" s="535"/>
-      <c r="G29" s="537"/>
-      <c r="H29" s="541"/>
-      <c r="I29" s="542"/>
-      <c r="J29" s="543"/>
+      <c r="C29" s="537"/>
+      <c r="D29" s="538"/>
+      <c r="E29" s="540"/>
+      <c r="F29" s="527"/>
+      <c r="G29" s="529"/>
+      <c r="H29" s="533"/>
+      <c r="I29" s="534"/>
+      <c r="J29" s="535"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="519">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="529" t="s">
+      <c r="B30" s="521" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="530"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="532" t="str">
+      <c r="C30" s="522"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="524" t="str">
         <f>Данные!C17</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F30" s="533"/>
-      <c r="G30" s="536">
+      <c r="F30" s="525"/>
+      <c r="G30" s="528">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="538"/>
-      <c r="I30" s="539"/>
-      <c r="J30" s="540"/>
+      <c r="H30" s="530"/>
+      <c r="I30" s="531"/>
+      <c r="J30" s="532"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="544" t="str">
+      <c r="A31" s="520"/>
+      <c r="B31" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C31" s="545"/>
-      <c r="D31" s="546"/>
-      <c r="E31" s="534"/>
-      <c r="F31" s="535"/>
-      <c r="G31" s="537"/>
-      <c r="H31" s="541"/>
-      <c r="I31" s="542"/>
-      <c r="J31" s="543"/>
+      <c r="C31" s="537"/>
+      <c r="D31" s="538"/>
+      <c r="E31" s="526"/>
+      <c r="F31" s="527"/>
+      <c r="G31" s="529"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="534"/>
+      <c r="J31" s="535"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="519">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="529" t="s">
+      <c r="B32" s="521" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="530"/>
-      <c r="D32" s="531"/>
-      <c r="E32" s="532" t="str">
+      <c r="C32" s="522"/>
+      <c r="D32" s="523"/>
+      <c r="E32" s="524" t="str">
         <f>Данные!C18</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F32" s="533"/>
-      <c r="G32" s="536">
+      <c r="F32" s="525"/>
+      <c r="G32" s="528">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="538"/>
-      <c r="I32" s="539"/>
-      <c r="J32" s="540"/>
+      <c r="H32" s="530"/>
+      <c r="I32" s="531"/>
+      <c r="J32" s="532"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="544" t="str">
+      <c r="A33" s="520"/>
+      <c r="B33" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C33" s="545"/>
-      <c r="D33" s="546"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="537"/>
-      <c r="H33" s="541"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="543"/>
+      <c r="C33" s="537"/>
+      <c r="D33" s="538"/>
+      <c r="E33" s="526"/>
+      <c r="F33" s="527"/>
+      <c r="G33" s="529"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="534"/>
+      <c r="J33" s="535"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="519">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="529" t="s">
+      <c r="B34" s="521" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="530"/>
-      <c r="D34" s="531"/>
-      <c r="E34" s="532" t="str">
+      <c r="C34" s="522"/>
+      <c r="D34" s="523"/>
+      <c r="E34" s="524" t="str">
         <f>Данные!C19</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F34" s="533"/>
-      <c r="G34" s="536">
+      <c r="F34" s="525"/>
+      <c r="G34" s="528">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="538"/>
-      <c r="I34" s="539"/>
-      <c r="J34" s="540"/>
+      <c r="H34" s="530"/>
+      <c r="I34" s="531"/>
+      <c r="J34" s="532"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="544" t="str">
+      <c r="A35" s="520"/>
+      <c r="B35" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C35" s="545"/>
-      <c r="D35" s="546"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="537"/>
-      <c r="H35" s="541"/>
-      <c r="I35" s="542"/>
-      <c r="J35" s="543"/>
+      <c r="C35" s="537"/>
+      <c r="D35" s="538"/>
+      <c r="E35" s="526"/>
+      <c r="F35" s="527"/>
+      <c r="G35" s="529"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="534"/>
+      <c r="J35" s="535"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="519">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="529" t="s">
+      <c r="B36" s="521" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="530"/>
-      <c r="D36" s="531"/>
-      <c r="E36" s="532">
+      <c r="C36" s="522"/>
+      <c r="D36" s="523"/>
+      <c r="E36" s="524">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F36" s="533"/>
-      <c r="G36" s="536">
+      <c r="F36" s="525"/>
+      <c r="G36" s="528">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="H36" s="538"/>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
+      <c r="H36" s="530"/>
+      <c r="I36" s="531"/>
+      <c r="J36" s="532"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="547"/>
-      <c r="B37" s="544" t="str">
+      <c r="A37" s="539"/>
+      <c r="B37" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C37" s="545"/>
-      <c r="D37" s="546"/>
-      <c r="E37" s="534"/>
-      <c r="F37" s="535"/>
-      <c r="G37" s="537"/>
-      <c r="H37" s="541"/>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
+      <c r="C37" s="537"/>
+      <c r="D37" s="538"/>
+      <c r="E37" s="526"/>
+      <c r="F37" s="527"/>
+      <c r="G37" s="529"/>
+      <c r="H37" s="533"/>
+      <c r="I37" s="534"/>
+      <c r="J37" s="535"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="519">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="529" t="s">
+      <c r="B38" s="521" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="530"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="532">
+      <c r="C38" s="522"/>
+      <c r="D38" s="523"/>
+      <c r="E38" s="524">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="533"/>
-      <c r="G38" s="536">
+      <c r="F38" s="525"/>
+      <c r="G38" s="528">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="538"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="540"/>
+      <c r="H38" s="530"/>
+      <c r="I38" s="531"/>
+      <c r="J38" s="532"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="547"/>
-      <c r="B39" s="544" t="str">
+      <c r="A39" s="539"/>
+      <c r="B39" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C39" s="545"/>
-      <c r="D39" s="546"/>
-      <c r="E39" s="534"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="537"/>
-      <c r="H39" s="541"/>
-      <c r="I39" s="542"/>
-      <c r="J39" s="543"/>
+      <c r="C39" s="537"/>
+      <c r="D39" s="538"/>
+      <c r="E39" s="526"/>
+      <c r="F39" s="527"/>
+      <c r="G39" s="529"/>
+      <c r="H39" s="533"/>
+      <c r="I39" s="534"/>
+      <c r="J39" s="535"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="519">
         <f>A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="529" t="s">
+      <c r="B40" s="521" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="530"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="532" t="str">
+      <c r="C40" s="522"/>
+      <c r="D40" s="523"/>
+      <c r="E40" s="524" t="str">
         <f>Данные!C23</f>
         <v>XXI-B-28-2-450-19</v>
       </c>
-      <c r="F40" s="533"/>
-      <c r="G40" s="536">
+      <c r="F40" s="525"/>
+      <c r="G40" s="528">
         <f>Данные!B23</f>
         <v>22</v>
       </c>
-      <c r="H40" s="538"/>
-      <c r="I40" s="539"/>
-      <c r="J40" s="540"/>
+      <c r="H40" s="530"/>
+      <c r="I40" s="531"/>
+      <c r="J40" s="532"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="544" t="str">
+      <c r="A41" s="520"/>
+      <c r="B41" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C41" s="545"/>
-      <c r="D41" s="546"/>
-      <c r="E41" s="534"/>
-      <c r="F41" s="535"/>
-      <c r="G41" s="537"/>
-      <c r="H41" s="541"/>
-      <c r="I41" s="542"/>
-      <c r="J41" s="543"/>
+      <c r="C41" s="537"/>
+      <c r="D41" s="538"/>
+      <c r="E41" s="526"/>
+      <c r="F41" s="527"/>
+      <c r="G41" s="529"/>
+      <c r="H41" s="533"/>
+      <c r="I41" s="534"/>
+      <c r="J41" s="535"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="519">
         <f t="shared" ref="A42" si="6">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="529" t="s">
+      <c r="B42" s="521" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="530"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="532">
+      <c r="C42" s="522"/>
+      <c r="D42" s="523"/>
+      <c r="E42" s="524">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="533"/>
-      <c r="G42" s="536">
+      <c r="F42" s="525"/>
+      <c r="G42" s="528">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="538"/>
-      <c r="I42" s="539"/>
-      <c r="J42" s="540"/>
+      <c r="H42" s="530"/>
+      <c r="I42" s="531"/>
+      <c r="J42" s="532"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="544" t="str">
+      <c r="A43" s="520"/>
+      <c r="B43" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C43" s="545"/>
-      <c r="D43" s="546"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="535"/>
-      <c r="G43" s="537"/>
-      <c r="H43" s="541"/>
-      <c r="I43" s="542"/>
-      <c r="J43" s="543"/>
+      <c r="C43" s="537"/>
+      <c r="D43" s="538"/>
+      <c r="E43" s="526"/>
+      <c r="F43" s="527"/>
+      <c r="G43" s="529"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="534"/>
+      <c r="J43" s="535"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="519">
         <f t="shared" ref="A44" si="7">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="529" t="s">
+      <c r="B44" s="521" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="530"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="532">
+      <c r="C44" s="522"/>
+      <c r="D44" s="523"/>
+      <c r="E44" s="524">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="533"/>
-      <c r="G44" s="536">
+      <c r="F44" s="525"/>
+      <c r="G44" s="528">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="538"/>
-      <c r="I44" s="539"/>
-      <c r="J44" s="540"/>
+      <c r="H44" s="530"/>
+      <c r="I44" s="531"/>
+      <c r="J44" s="532"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="544" t="str">
+      <c r="A45" s="520"/>
+      <c r="B45" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C45" s="545"/>
-      <c r="D45" s="546"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="535"/>
-      <c r="G45" s="537"/>
-      <c r="H45" s="541"/>
-      <c r="I45" s="542"/>
-      <c r="J45" s="543"/>
+      <c r="C45" s="537"/>
+      <c r="D45" s="538"/>
+      <c r="E45" s="526"/>
+      <c r="F45" s="527"/>
+      <c r="G45" s="529"/>
+      <c r="H45" s="533"/>
+      <c r="I45" s="534"/>
+      <c r="J45" s="535"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="519">
         <f t="shared" ref="A46" si="8">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="529" t="s">
+      <c r="B46" s="521" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="530"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="532">
+      <c r="C46" s="522"/>
+      <c r="D46" s="523"/>
+      <c r="E46" s="524">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="533"/>
-      <c r="G46" s="536">
+      <c r="F46" s="525"/>
+      <c r="G46" s="528">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="538"/>
-      <c r="I46" s="539"/>
-      <c r="J46" s="540"/>
+      <c r="H46" s="530"/>
+      <c r="I46" s="531"/>
+      <c r="J46" s="532"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="544" t="str">
+      <c r="A47" s="520"/>
+      <c r="B47" s="536" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту XXI-B-28-2-450-19)</v>
       </c>
-      <c r="C47" s="545"/>
-      <c r="D47" s="546"/>
-      <c r="E47" s="534"/>
-      <c r="F47" s="535"/>
-      <c r="G47" s="537"/>
-      <c r="H47" s="541"/>
-      <c r="I47" s="542"/>
-      <c r="J47" s="543"/>
+      <c r="C47" s="537"/>
+      <c r="D47" s="538"/>
+      <c r="E47" s="526"/>
+      <c r="F47" s="527"/>
+      <c r="G47" s="529"/>
+      <c r="H47" s="533"/>
+      <c r="I47" s="534"/>
+      <c r="J47" s="535"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11546,47 +11601,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11597,9 +11652,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11618,22 +11673,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11644,22 +11699,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11670,27 +11725,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="514">
+      <c r="C7" s="591"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="598" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="502">
+      <c r="J7" s="594"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12184,12 +12239,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="595" t="s">
+      <c r="B23" s="587" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="596"/>
-      <c r="D23" s="596"/>
-      <c r="E23" s="597"/>
+      <c r="C23" s="588"/>
+      <c r="D23" s="588"/>
+      <c r="E23" s="589"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12211,12 +12266,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="585" t="s">
+      <c r="B24" s="577" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="586"/>
-      <c r="D24" s="586"/>
-      <c r="E24" s="587"/>
+      <c r="C24" s="578"/>
+      <c r="D24" s="578"/>
+      <c r="E24" s="579"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12259,25 +12314,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="560" t="s">
+      <c r="K27" s="552" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="560"/>
-      <c r="M27" s="560"/>
-      <c r="N27" s="473"/>
-      <c r="O27" s="473"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
+      <c r="L27" s="552"/>
+      <c r="M27" s="552"/>
+      <c r="N27" s="467"/>
+      <c r="O27" s="467"/>
+      <c r="P27" s="483"/>
+      <c r="Q27" s="483"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="557" t="s">
+      <c r="N28" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="557"/>
-      <c r="P28" s="558" t="s">
+      <c r="O28" s="549"/>
+      <c r="P28" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="Q28" s="559"/>
+      <c r="Q28" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12369,50 +12424,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="609">
+      <c r="B2" s="601">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12423,9 +12478,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12444,22 +12499,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12470,22 +12525,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12496,27 +12551,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12713,12 +12768,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="633" t="s">
+      <c r="B14" s="625" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="634"/>
-      <c r="D14" s="634"/>
-      <c r="E14" s="634"/>
+      <c r="C14" s="626"/>
+      <c r="D14" s="626"/>
+      <c r="E14" s="626"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12740,13 +12795,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="595" t="s">
+      <c r="B15" s="587" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="596"/>
-      <c r="D15" s="596"/>
-      <c r="E15" s="596"/>
-      <c r="F15" s="632"/>
+      <c r="C15" s="588"/>
+      <c r="D15" s="588"/>
+      <c r="E15" s="588"/>
+      <c r="F15" s="624"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12765,12 +12820,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="585" t="s">
+      <c r="B16" s="577" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="586"/>
-      <c r="D16" s="586"/>
-      <c r="E16" s="587"/>
+      <c r="C16" s="578"/>
+      <c r="D16" s="578"/>
+      <c r="E16" s="579"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12817,25 +12872,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="560" t="s">
+      <c r="L19" s="552" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="560"/>
-      <c r="N19" s="560"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="552"/>
+      <c r="N19" s="552"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="557" t="s">
+      <c r="O20" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="557"/>
-      <c r="Q20" s="558" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="559"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12936,47 +12991,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="573"/>
-      <c r="Q2" s="573"/>
+      <c r="P2" s="565"/>
+      <c r="Q2" s="565"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12987,9 +13042,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13008,22 +13063,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13034,22 +13089,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13060,27 +13115,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="514">
+      <c r="C7" s="591"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="598" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="502">
+      <c r="J7" s="594"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13562,25 +13617,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="635" t="s">
+      <c r="L23" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="635"/>
-      <c r="N23" s="635"/>
-      <c r="O23" s="473"/>
-      <c r="P23" s="473"/>
-      <c r="Q23" s="489"/>
-      <c r="R23" s="489"/>
+      <c r="M23" s="627"/>
+      <c r="N23" s="627"/>
+      <c r="O23" s="467"/>
+      <c r="P23" s="467"/>
+      <c r="Q23" s="483"/>
+      <c r="R23" s="483"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="557" t="s">
+      <c r="O24" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P24" s="557"/>
-      <c r="Q24" s="558" t="s">
+      <c r="P24" s="549"/>
+      <c r="Q24" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R24" s="559"/>
+      <c r="R24" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13672,47 +13727,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="561"/>
-      <c r="C2" s="562"/>
-      <c r="D2" s="563"/>
-      <c r="E2" s="570" t="s">
+      <c r="B2" s="553"/>
+      <c r="C2" s="554"/>
+      <c r="D2" s="555"/>
+      <c r="E2" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="571"/>
-      <c r="G2" s="571"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="563"/>
+      <c r="G2" s="563"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="569" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="570"/>
+      <c r="K2" s="573">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="574"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="564"/>
-      <c r="C3" s="565"/>
-      <c r="D3" s="566"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="556"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="558"/>
+      <c r="E3" s="566" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="567"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="568"/>
+      <c r="I3" s="571"/>
+      <c r="J3" s="572"/>
+      <c r="K3" s="575"/>
+      <c r="L3" s="576"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13723,9 +13778,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="567"/>
-      <c r="C4" s="568"/>
-      <c r="D4" s="569"/>
+      <c r="B4" s="559"/>
+      <c r="C4" s="560"/>
+      <c r="D4" s="561"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13744,22 +13799,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="581"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="591"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="582"/>
+      <c r="J5" s="583"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13770,22 +13825,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="590"/>
-      <c r="J6" s="591"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="582"/>
+      <c r="J6" s="583"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13796,27 +13851,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="514">
+      <c r="C7" s="591"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="598" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
-      <c r="K7" s="502">
+      <c r="J7" s="594"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14100,25 +14155,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="635" t="s">
+      <c r="L18" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="635"/>
-      <c r="N18" s="635"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="627"/>
+      <c r="N18" s="627"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="557" t="s">
+      <c r="O19" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="557"/>
-      <c r="Q19" s="558" t="s">
+      <c r="P19" s="549"/>
+      <c r="Q19" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R19" s="559"/>
+      <c r="R19" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14214,60 +14269,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="629"/>
-      <c r="M2" s="637"/>
-      <c r="N2" s="638"/>
-      <c r="O2" s="638"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
-      <c r="R2" s="639"/>
+      <c r="L2" s="621"/>
+      <c r="M2" s="629"/>
+      <c r="N2" s="630"/>
+      <c r="O2" s="630"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
+      <c r="R2" s="631"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
-      <c r="M3" s="640"/>
-      <c r="N3" s="641"/>
-      <c r="O3" s="641"/>
-      <c r="P3" s="641"/>
-      <c r="Q3" s="641"/>
-      <c r="R3" s="642"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
+      <c r="M3" s="632"/>
+      <c r="N3" s="633"/>
+      <c r="O3" s="633"/>
+      <c r="P3" s="633"/>
+      <c r="Q3" s="633"/>
+      <c r="R3" s="634"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14276,95 +14331,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="640"/>
-      <c r="N4" s="641"/>
-      <c r="O4" s="641"/>
-      <c r="P4" s="641"/>
-      <c r="Q4" s="641"/>
-      <c r="R4" s="642"/>
+      <c r="M4" s="632"/>
+      <c r="N4" s="633"/>
+      <c r="O4" s="633"/>
+      <c r="P4" s="633"/>
+      <c r="Q4" s="633"/>
+      <c r="R4" s="634"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
-      <c r="M5" s="640"/>
-      <c r="N5" s="641"/>
-      <c r="O5" s="641"/>
-      <c r="P5" s="641"/>
-      <c r="Q5" s="641"/>
-      <c r="R5" s="642"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="632"/>
+      <c r="N5" s="633"/>
+      <c r="O5" s="633"/>
+      <c r="P5" s="633"/>
+      <c r="Q5" s="633"/>
+      <c r="R5" s="634"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
-      <c r="M6" s="640"/>
-      <c r="N6" s="641"/>
-      <c r="O6" s="641"/>
-      <c r="P6" s="641"/>
-      <c r="Q6" s="641"/>
-      <c r="R6" s="642"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="632"/>
+      <c r="N6" s="633"/>
+      <c r="O6" s="633"/>
+      <c r="P6" s="633"/>
+      <c r="Q6" s="633"/>
+      <c r="R6" s="634"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
-      <c r="M7" s="640"/>
-      <c r="N7" s="641"/>
-      <c r="O7" s="641"/>
-      <c r="P7" s="641"/>
-      <c r="Q7" s="641"/>
-      <c r="R7" s="642"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="632"/>
+      <c r="N7" s="633"/>
+      <c r="O7" s="633"/>
+      <c r="P7" s="633"/>
+      <c r="Q7" s="633"/>
+      <c r="R7" s="634"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14520,38 +14575,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="484" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="474"/>
-      <c r="B13" s="475" t="s">
+    <row r="13" spans="1:19" s="478" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="468"/>
+      <c r="B13" s="469" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="476">
+      <c r="C13" s="470">
         <v>38.1</v>
       </c>
-      <c r="D13" s="477">
+      <c r="D13" s="471">
         <v>0.03</v>
       </c>
-      <c r="E13" s="477">
+      <c r="E13" s="471">
         <v>0</v>
       </c>
-      <c r="F13" s="478" t="s">
+      <c r="F13" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="479"/>
-      <c r="I13" s="480"/>
-      <c r="J13" s="480"/>
-      <c r="K13" s="480"/>
-      <c r="L13" s="480"/>
-      <c r="M13" s="481"/>
-      <c r="N13" s="481"/>
-      <c r="O13" s="481"/>
-      <c r="P13" s="481"/>
-      <c r="Q13" s="481"/>
-      <c r="R13" s="482"/>
-      <c r="S13" s="483"/>
+      <c r="H13" s="473"/>
+      <c r="I13" s="474"/>
+      <c r="J13" s="474"/>
+      <c r="K13" s="474"/>
+      <c r="L13" s="474"/>
+      <c r="M13" s="475"/>
+      <c r="N13" s="475"/>
+      <c r="O13" s="475"/>
+      <c r="P13" s="475"/>
+      <c r="Q13" s="475"/>
+      <c r="R13" s="476"/>
+      <c r="S13" s="477"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14782,12 +14837,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="585" t="s">
+      <c r="B21" s="577" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="586"/>
-      <c r="D21" s="586"/>
-      <c r="E21" s="587"/>
+      <c r="C21" s="578"/>
+      <c r="D21" s="578"/>
+      <c r="E21" s="579"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14832,25 +14887,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="635" t="s">
+      <c r="L24" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M24" s="635"/>
-      <c r="N24" s="635"/>
-      <c r="O24" s="473"/>
-      <c r="P24" s="473"/>
-      <c r="Q24" s="489"/>
-      <c r="R24" s="489"/>
+      <c r="M24" s="627"/>
+      <c r="N24" s="627"/>
+      <c r="O24" s="467"/>
+      <c r="P24" s="467"/>
+      <c r="Q24" s="483"/>
+      <c r="R24" s="483"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="557" t="s">
+      <c r="O25" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="557"/>
-      <c r="Q25" s="558" t="s">
+      <c r="P25" s="549"/>
+      <c r="Q25" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R25" s="559"/>
+      <c r="R25" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14940,47 +14995,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="609"/>
-      <c r="C2" s="610"/>
-      <c r="D2" s="611"/>
-      <c r="E2" s="618" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="619"/>
-      <c r="G2" s="619"/>
-      <c r="H2" s="620"/>
-      <c r="I2" s="624" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="625"/>
-      <c r="K2" s="628">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="612"/>
-      <c r="C3" s="613"/>
-      <c r="D3" s="614"/>
-      <c r="E3" s="621" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="622"/>
-      <c r="G3" s="622"/>
-      <c r="H3" s="623"/>
-      <c r="I3" s="626"/>
-      <c r="J3" s="627"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14991,9 +15046,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="615"/>
-      <c r="C4" s="616"/>
-      <c r="D4" s="617"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15012,22 +15067,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="580" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="603"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="595"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="604"/>
-      <c r="J5" s="605"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="596"/>
+      <c r="J5" s="597"/>
+      <c r="K5" s="598"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15038,22 +15093,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="588" t="s">
+      <c r="B6" s="580" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="603"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-B-28-2-450-19 (Калина 0.45 л.)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="604"/>
-      <c r="J6" s="605"/>
-      <c r="K6" s="606"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="585"/>
+      <c r="F6" s="585"/>
+      <c r="G6" s="585"/>
+      <c r="H6" s="586"/>
+      <c r="I6" s="596"/>
+      <c r="J6" s="597"/>
+      <c r="K6" s="598"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15064,27 +15119,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="598" t="s">
+      <c r="B7" s="590" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="607"/>
-      <c r="D7" s="514">
+      <c r="C7" s="599"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="600"/>
-      <c r="F7" s="600"/>
-      <c r="G7" s="600"/>
-      <c r="H7" s="601"/>
-      <c r="I7" s="608" t="s">
+      <c r="E7" s="592"/>
+      <c r="F7" s="592"/>
+      <c r="G7" s="592"/>
+      <c r="H7" s="593"/>
+      <c r="I7" s="600" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="607"/>
-      <c r="K7" s="502">
+      <c r="J7" s="599"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15213,38 +15268,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="474"/>
-      <c r="B12" s="485" t="s">
+    <row r="12" spans="1:19" s="478" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="468"/>
+      <c r="B12" s="479" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="486">
+      <c r="C12" s="480">
         <v>28.6</v>
       </c>
-      <c r="D12" s="480">
+      <c r="D12" s="474">
         <v>0</v>
       </c>
-      <c r="E12" s="480">
+      <c r="E12" s="474">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>142</v>
       </c>
-      <c r="H12" s="487"/>
-      <c r="I12" s="480"/>
-      <c r="J12" s="480"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="480"/>
-      <c r="M12" s="480"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="480"/>
-      <c r="P12" s="480"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="483"/>
+      <c r="H12" s="481"/>
+      <c r="I12" s="474"/>
+      <c r="J12" s="474"/>
+      <c r="K12" s="474"/>
+      <c r="L12" s="474"/>
+      <c r="M12" s="474"/>
+      <c r="N12" s="474"/>
+      <c r="O12" s="474"/>
+      <c r="P12" s="474"/>
+      <c r="Q12" s="474"/>
+      <c r="R12" s="482"/>
+      <c r="S12" s="477"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15347,12 +15402,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="585" t="s">
+      <c r="B16" s="577" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="586"/>
-      <c r="D16" s="586"/>
-      <c r="E16" s="587"/>
+      <c r="C16" s="578"/>
+      <c r="D16" s="578"/>
+      <c r="E16" s="579"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15397,25 +15452,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="635" t="s">
+      <c r="L19" s="627" t="s">
         <v>139</v>
       </c>
-      <c r="M19" s="635"/>
-      <c r="N19" s="635"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="627"/>
+      <c r="N19" s="627"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="557" t="s">
+      <c r="O20" s="549" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="557"/>
-      <c r="Q20" s="558" t="s">
+      <c r="P20" s="549"/>
+      <c r="Q20" s="550" t="s">
         <v>144</v>
       </c>
-      <c r="R20" s="559"/>
+      <c r="R20" s="551"/>
     </row>
   </sheetData>
   <mergeCells count="22">
